--- a/hans-sses/doc/SSES 테이블 정의서.xlsx
+++ b/hans-sses/doc/SSES 테이블 정의서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leogon/IdeaProjects/doitfive/doit5-admin/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leogon/IdeaProjects/hans/hans-sses/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
+    <workbookView xWindow="29480" yWindow="740" windowWidth="35700" windowHeight="19060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sheet2" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="231">
   <si>
     <t>DATETIME</t>
   </si>
@@ -211,9 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UPDATE_DATE</t>
-  </si>
-  <si>
     <t>수정일</t>
   </si>
   <si>
@@ -407,10 +404,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MENU_FUNC_SEQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기능SEQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -518,9 +511,6 @@
   </si>
   <si>
     <t>조직명</t>
-  </si>
-  <si>
-    <t>VARCHAR(17)</t>
   </si>
   <si>
     <t>사용자정보</t>
@@ -554,13 +544,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>USER_NAME</t>
-  </si>
-  <si>
     <t>사용자이름</t>
-  </si>
-  <si>
-    <t>VARCHAR(30)</t>
   </si>
   <si>
     <t>LOCATION</t>
@@ -642,18 +626,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EQUIPMENT_SEQ</t>
-  </si>
-  <si>
     <t>장비일련번호</t>
   </si>
   <si>
     <t>INT(11)</t>
   </si>
   <si>
-    <t>EQUIPMENT_NAME</t>
-  </si>
-  <si>
     <t>장비명</t>
   </si>
   <si>
@@ -673,9 +651,6 @@
   </si>
   <si>
     <t>기타</t>
-  </si>
-  <si>
-    <t>ELECTRICAL_POWER</t>
   </si>
   <si>
     <t>소비전력</t>
@@ -746,10 +721,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(200)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>CONTENTS</t>
   </si>
   <si>
@@ -764,9 +735,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VIEW_CNT</t>
-  </si>
-  <si>
     <t>조회수</t>
   </si>
   <si>
@@ -775,6 +743,128 @@
   </si>
   <si>
     <t>MOD_DATE</t>
+  </si>
+  <si>
+    <t>로그정보</t>
+  </si>
+  <si>
+    <t>PART_CODE</t>
+  </si>
+  <si>
+    <t>구분코드</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>SUM_POWER</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용전력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_LOG_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOD_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌 정책</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌 정책</t>
+  </si>
+  <si>
+    <t>POLICY_NAME</t>
+  </si>
+  <si>
+    <t>정책명</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>정책설정값</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_GOLOBAL_POLICY</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNC_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(128)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>READ_CNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAY_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계시여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIP_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELECT_POWER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -834,7 +924,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -977,11 +1067,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1050,6 +1179,24 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1329,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1388,11 +1535,11 @@
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -1581,10 +1728,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>29</v>
@@ -1601,7 +1748,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>13</v>
@@ -1636,11 +1783,11 @@
       <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -1693,7 +1840,7 @@
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1704,7 +1851,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>29</v>
@@ -1723,7 +1870,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>8</v>
@@ -1732,7 +1879,7 @@
         <v>29</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="16"/>
@@ -1765,10 +1912,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>29</v>
@@ -1785,7 +1932,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>13</v>
@@ -1803,7 +1950,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>16</v>
@@ -1820,11 +1967,11 @@
       <c r="A24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="B24" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -1861,10 +2008,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>29</v>
@@ -1877,7 +2024,7 @@
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1909,22 +2056,22 @@
         <v>3</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="D28" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="15" t="s">
+      <c r="F28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>66</v>
       </c>
       <c r="H28" s="17"/>
     </row>
@@ -1955,10 +2102,10 @@
         <v>5</v>
       </c>
       <c r="B30" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>29</v>
@@ -1975,7 +2122,7 @@
         <v>11</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>13</v>
@@ -1993,7 +2140,7 @@
         <v>14</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>16</v>
@@ -2010,11 +2157,11 @@
       <c r="A33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
+      <c r="B33" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -2051,23 +2198,23 @@
         <v>1</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="D35" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>31</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2078,7 +2225,7 @@
         <v>27</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>29</v>
@@ -2091,7 +2238,7 @@
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2119,16 +2266,16 @@
         <v>4</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="D38" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>31</v>
@@ -2141,10 +2288,10 @@
         <v>5</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>29</v>
@@ -2160,16 +2307,16 @@
         <v>6</v>
       </c>
       <c r="B40" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="D40" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -2202,10 +2349,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>29</v>
@@ -2222,7 +2369,7 @@
         <v>11</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>13</v>
@@ -2240,7 +2387,7 @@
         <v>14</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>16</v>
@@ -2257,11 +2404,11 @@
       <c r="A45" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
+      <c r="B45" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
@@ -2298,10 +2445,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>29</v>
@@ -2314,7 +2461,7 @@
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2322,10 +2469,10 @@
         <v>2</v>
       </c>
       <c r="B48" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>29</v>
@@ -2342,16 +2489,16 @@
         <v>3</v>
       </c>
       <c r="B49" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="D49" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F49" s="15"/>
       <c r="G49" s="16"/>
@@ -2362,20 +2509,20 @@
         <v>4</v>
       </c>
       <c r="B50" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="D50" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H50" s="20"/>
     </row>
@@ -2384,19 +2531,19 @@
         <v>5</v>
       </c>
       <c r="B51" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>97</v>
-      </c>
       <c r="D51" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G51" s="16"/>
       <c r="H51" s="20"/>
@@ -2415,7 +2562,7 @@
         <v>29</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F52" s="15"/>
       <c r="G52" s="16"/>
@@ -2426,16 +2573,16 @@
         <v>7</v>
       </c>
       <c r="B53" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>58</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="16"/>
@@ -2468,10 +2615,10 @@
         <v>9</v>
       </c>
       <c r="B55" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C55" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>29</v>
@@ -2488,7 +2635,7 @@
         <v>11</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>13</v>
@@ -2506,7 +2653,7 @@
         <v>14</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>16</v>
@@ -2523,11 +2670,11 @@
       <c r="A58" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
+      <c r="B58" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
@@ -2564,10 +2711,10 @@
         <v>1</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>102</v>
+        <v>218</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>29</v>
@@ -2580,7 +2727,7 @@
       </c>
       <c r="G60" s="16"/>
       <c r="H60" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2588,10 +2735,10 @@
         <v>2</v>
       </c>
       <c r="B61" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>29</v>
@@ -2615,7 +2762,7 @@
         <v>41</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>29</v>
@@ -2635,13 +2782,13 @@
         <v>5</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
@@ -2652,20 +2799,20 @@
         <v>5</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F64" s="16"/>
       <c r="G64" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H64" s="17"/>
     </row>
@@ -2674,16 +2821,16 @@
         <v>6</v>
       </c>
       <c r="B65" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>58</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="16"/>
@@ -2716,10 +2863,10 @@
         <v>8</v>
       </c>
       <c r="B67" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C67" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>29</v>
@@ -2736,7 +2883,7 @@
         <v>11</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>13</v>
@@ -2754,7 +2901,7 @@
         <v>14</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>16</v>
@@ -2771,11 +2918,11 @@
       <c r="A70" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B70" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
+      <c r="B70" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
@@ -2812,10 +2959,10 @@
         <v>1</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>29</v>
@@ -2828,7 +2975,7 @@
       </c>
       <c r="G72" s="16"/>
       <c r="H72" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2839,19 +2986,19 @@
         <v>4</v>
       </c>
       <c r="C73" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G73" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>115</v>
       </c>
       <c r="H73" s="20"/>
     </row>
@@ -2860,10 +3007,10 @@
         <v>3</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>29</v>
@@ -2872,7 +3019,7 @@
         <v>30</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="16"/>
       <c r="H74" s="20"/>
@@ -2885,13 +3032,13 @@
         <v>5</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F75" s="15"/>
       <c r="G75" s="16"/>
@@ -2902,7 +3049,7 @@
         <v>5</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>8</v>
@@ -2911,7 +3058,7 @@
         <v>29</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F76" s="15"/>
       <c r="G76" s="16"/>
@@ -2925,13 +3072,13 @@
         <v>6</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="16"/>
@@ -2942,7 +3089,7 @@
         <v>7</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>9</v>
@@ -2951,7 +3098,7 @@
         <v>29</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="16"/>
@@ -2984,10 +3131,10 @@
         <v>9</v>
       </c>
       <c r="B80" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C80" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="D80" s="18" t="s">
         <v>29</v>
@@ -3004,7 +3151,7 @@
         <v>11</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>13</v>
@@ -3022,7 +3169,7 @@
         <v>14</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>16</v>
@@ -3039,11 +3186,11 @@
       <c r="A83" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B83" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
+      <c r="B83" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
@@ -3080,10 +3227,10 @@
         <v>1</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>29</v>
@@ -3096,7 +3243,7 @@
       </c>
       <c r="G85" s="16"/>
       <c r="H85" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3104,10 +3251,10 @@
         <v>2</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>29</v>
@@ -3124,16 +3271,16 @@
         <v>3</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="F87" s="15" t="s">
         <v>31</v>
@@ -3170,10 +3317,10 @@
         <v>7</v>
       </c>
       <c r="B89" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C89" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>29</v>
@@ -3190,7 +3337,7 @@
         <v>11</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>13</v>
@@ -3208,7 +3355,7 @@
         <v>14</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>16</v>
@@ -3225,11 +3372,11 @@
       <c r="A92" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
+      <c r="B92" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
@@ -3266,10 +3413,10 @@
         <v>1</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>29</v>
@@ -3282,7 +3429,7 @@
       </c>
       <c r="G94" s="16"/>
       <c r="H94" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3290,23 +3437,23 @@
         <v>2</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F95" s="15" t="s">
         <v>31</v>
       </c>
       <c r="G95" s="16"/>
       <c r="H95" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3314,16 +3461,16 @@
         <v>4</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D96" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
@@ -3334,16 +3481,16 @@
         <v>5</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="F97" s="15" t="s">
         <v>31</v>
@@ -3356,18 +3503,20 @@
         <v>6</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="F98" s="16"/>
+        <v>220</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="G98" s="16"/>
       <c r="H98" s="17"/>
     </row>
@@ -3376,10 +3525,10 @@
         <v>7</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>29</v>
@@ -3396,16 +3545,16 @@
         <v>8</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
@@ -3416,10 +3565,10 @@
         <v>9</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D101" s="15" t="s">
         <v>29</v>
@@ -3436,10 +3585,10 @@
         <v>10</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D102" s="15" t="s">
         <v>29</v>
@@ -3480,10 +3629,10 @@
         <v>12</v>
       </c>
       <c r="B104" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="D104" s="18" t="s">
         <v>29</v>
@@ -3500,7 +3649,7 @@
         <v>11</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>13</v>
@@ -3518,7 +3667,7 @@
         <v>14</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>16</v>
@@ -3535,11 +3684,11 @@
       <c r="A107" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B107" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
+      <c r="B107" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
       <c r="G107" s="11"/>
@@ -3576,10 +3725,10 @@
         <v>1</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D109" s="15" t="s">
         <v>29</v>
@@ -3592,7 +3741,7 @@
       </c>
       <c r="G109" s="16"/>
       <c r="H109" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -3600,10 +3749,10 @@
         <v>2</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D110" s="15" t="s">
         <v>29</v>
@@ -3622,16 +3771,16 @@
         <v>3</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D111" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F111" s="15" t="s">
         <v>31</v>
@@ -3644,16 +3793,16 @@
         <v>4</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D112" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F112" s="15" t="s">
         <v>31</v>
@@ -3690,10 +3839,10 @@
         <v>6</v>
       </c>
       <c r="B114" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C114" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="C114" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="D114" s="18" t="s">
         <v>29</v>
@@ -3710,7 +3859,7 @@
         <v>11</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>13</v>
@@ -3728,7 +3877,7 @@
         <v>14</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C116" s="10" t="s">
         <v>16</v>
@@ -3745,11 +3894,11 @@
       <c r="A117" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B117" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="C117" s="23"/>
-      <c r="D117" s="23"/>
+      <c r="B117" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
@@ -3786,23 +3935,23 @@
         <v>1</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D119" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F119" s="15" t="s">
         <v>31</v>
       </c>
       <c r="G119" s="16"/>
       <c r="H119" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -3810,16 +3959,16 @@
         <v>2</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D120" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F120" s="15" t="s">
         <v>31</v>
@@ -3832,16 +3981,16 @@
         <v>3</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D121" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F121" s="16"/>
       <c r="G121" s="16"/>
@@ -3852,16 +4001,16 @@
         <v>4</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D122" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
@@ -3872,16 +4021,16 @@
         <v>5</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D123" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F123" s="16"/>
       <c r="G123" s="16"/>
@@ -3892,16 +4041,16 @@
         <v>6</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D124" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F124" s="15" t="s">
         <v>31</v>
@@ -3936,10 +4085,10 @@
         <v>8</v>
       </c>
       <c r="B126" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C126" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="C126" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="D126" s="18" t="s">
         <v>29</v>
@@ -3956,7 +4105,7 @@
         <v>11</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>13</v>
@@ -3974,7 +4123,7 @@
         <v>14</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C128" s="10" t="s">
         <v>16</v>
@@ -3991,11 +4140,11 @@
       <c r="A129" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B129" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="C129" s="23"/>
-      <c r="D129" s="23"/>
+      <c r="B129" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C129" s="24"/>
+      <c r="D129" s="24"/>
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
       <c r="G129" s="11"/>
@@ -4032,23 +4181,23 @@
         <v>1</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D131" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E131" s="15" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F131" s="15" t="s">
         <v>31</v>
       </c>
       <c r="G131" s="16"/>
       <c r="H131" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -4056,10 +4205,10 @@
         <v>2</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D132" s="15" t="s">
         <v>29</v>
@@ -4072,7 +4221,7 @@
       </c>
       <c r="G132" s="16"/>
       <c r="H132" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -4080,23 +4229,23 @@
         <v>3</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D133" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F133" s="15" t="s">
         <v>31</v>
       </c>
       <c r="G133" s="16"/>
       <c r="H133" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -4104,16 +4253,16 @@
         <v>4</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D134" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F134" s="15" t="s">
         <v>31</v>
@@ -4121,73 +4270,79 @@
       <c r="G134" s="16"/>
       <c r="H134" s="17"/>
     </row>
-    <row r="135" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="21">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="14">
         <v>5</v>
       </c>
-      <c r="B135" s="18" t="s">
+      <c r="B135" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C135" s="18" t="s">
+      <c r="C135" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D135" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E135" s="18" t="s">
+      <c r="D135" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E135" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F135" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G135" s="19"/>
-      <c r="H135" s="22"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="F135" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G135" s="27"/>
+      <c r="H135" s="28"/>
+    </row>
+    <row r="136" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="21">
+        <v>6</v>
+      </c>
+      <c r="B136" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D136" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E136" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F136" s="19"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="22"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C136" s="3" t="s">
+      <c r="B137" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D136" s="4">
+      <c r="D137" s="4">
         <v>42800</v>
       </c>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="6"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E137" s="11"/>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="12"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="6"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B138" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C138" s="23"/>
-      <c r="D138" s="23"/>
+      <c r="C138" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
       <c r="G138" s="11"/>
@@ -4195,414 +4350,886 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B139" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C139" s="24"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="12"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="B140" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C139" s="10" t="s">
+      <c r="C140" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D139" s="10" t="s">
+      <c r="D140" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E139" s="10" t="s">
+      <c r="E140" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F139" s="10" t="s">
+      <c r="F140" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G139" s="10" t="s">
+      <c r="G140" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H139" s="13" t="s">
+      <c r="H140" s="13" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="14">
-        <v>1</v>
-      </c>
-      <c r="B140" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="C140" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="D140" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E140" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="F140" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G140" s="16"/>
-      <c r="H140" s="20" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="D141" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E141" s="15" t="s">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="F141" s="15" t="s">
         <v>31</v>
       </c>
       <c r="G141" s="16"/>
       <c r="H141" s="20" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="14">
+        <v>2</v>
+      </c>
+      <c r="B142" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B142" s="15" t="s">
+      <c r="C142" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C142" s="15" t="s">
+      <c r="D142" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E142" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D142" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E142" s="15" t="s">
-        <v>42</v>
-      </c>
       <c r="F142" s="15" t="s">
         <v>31</v>
       </c>
       <c r="G142" s="16"/>
-      <c r="H142" s="17"/>
+      <c r="H142" s="20"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="14">
+        <v>3</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D143" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E143" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F143" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G143" s="16"/>
+      <c r="H143" s="20"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="14">
         <v>4</v>
       </c>
-      <c r="B143" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C143" s="15" t="s">
+      <c r="B144" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="D143" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E143" s="15" t="s">
+      <c r="C144" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="F143" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G143" s="16"/>
-      <c r="H143" s="17"/>
-    </row>
-    <row r="144" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="21">
+      <c r="D144" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E144" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F144" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G144" s="16"/>
+      <c r="H144" s="20"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="14">
         <v>5</v>
       </c>
-      <c r="B144" s="18" t="s">
+      <c r="B145" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D145" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E145" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F145" s="15"/>
+      <c r="G145" s="16">
+        <v>0</v>
+      </c>
+      <c r="H145" s="20"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="14">
+        <v>6</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C146" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D146" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E146" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F146" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G146" s="16"/>
+      <c r="H146" s="20"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="14">
+        <v>7</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D147" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E147" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="F147" s="15"/>
+      <c r="G147" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="H147" s="20"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="14">
+        <v>8</v>
+      </c>
+      <c r="B148" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C144" s="18" t="s">
+      <c r="C148" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D144" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E144" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F144" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G144" s="19"/>
-      <c r="H144" s="22"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="D148" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E148" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F148" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G148" s="16"/>
+      <c r="H148" s="20"/>
+    </row>
+    <row r="149" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="14">
+        <v>9</v>
+      </c>
+      <c r="B149" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D149" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E149" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="F149" s="18"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="22"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C145" s="3" t="s">
+      <c r="B150" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D145" s="4">
-        <v>42800</v>
-      </c>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="6"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="8" t="s">
+      <c r="D150" s="29">
+        <v>42816</v>
+      </c>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="6"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B146" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C146" s="10" t="s">
+      <c r="B151" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C151" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D146" s="9" t="s">
+      <c r="D151" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E146" s="11"/>
-      <c r="F146" s="11"/>
-      <c r="G146" s="11"/>
-      <c r="H146" s="12"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="8" t="s">
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="12"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B147" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="C147" s="23"/>
-      <c r="D147" s="23"/>
-      <c r="E147" s="11"/>
-      <c r="F147" s="11"/>
-      <c r="G147" s="11"/>
-      <c r="H147" s="12"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="8" t="s">
+      <c r="B152" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C152" s="24"/>
+      <c r="D152" s="24"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="12"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B153" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C148" s="10" t="s">
+      <c r="C153" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D148" s="10" t="s">
+      <c r="D153" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E148" s="10" t="s">
+      <c r="E153" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F148" s="10" t="s">
+      <c r="F153" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G148" s="10" t="s">
+      <c r="G153" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H148" s="13" t="s">
+      <c r="H153" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="14">
-        <v>1</v>
-      </c>
-      <c r="B149" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="D149" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E149" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="F149" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G149" s="16"/>
-      <c r="H149" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="14">
-        <v>2</v>
-      </c>
-      <c r="B150" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="D150" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E150" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="F150" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G150" s="16"/>
-      <c r="H150" s="20"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="14">
-        <v>3</v>
-      </c>
-      <c r="B151" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D151" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E151" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="F151" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G151" s="16"/>
-      <c r="H151" s="20"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="14">
-        <v>4</v>
-      </c>
-      <c r="B152" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C152" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="D152" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E152" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="F152" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G152" s="16"/>
-      <c r="H152" s="20"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="14">
-        <v>5</v>
-      </c>
-      <c r="B153" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C153" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="D153" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E153" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F153" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G153" s="16"/>
-      <c r="H153" s="20"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="D154" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E154" s="15" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="F154" s="15" t="s">
         <v>31</v>
       </c>
       <c r="G154" s="16"/>
-      <c r="H154" s="20"/>
+      <c r="H154" s="20" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="14">
+        <v>2</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C155" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D155" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E155" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F155" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G155" s="16"/>
+      <c r="H155" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="14">
+        <v>3</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C156" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D156" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E156" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F156" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G156" s="16"/>
+      <c r="H156" s="17"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="14">
+        <v>4</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C157" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D157" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E157" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F157" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G157" s="16"/>
+      <c r="H157" s="17"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="25">
+        <v>5</v>
+      </c>
+      <c r="B158" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C158" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D158" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="E158" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="F158" s="26"/>
+      <c r="G158" s="27"/>
+      <c r="H158" s="28"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="25">
+        <v>6</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C159" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D159" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E159" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F159" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G159" s="27"/>
+      <c r="H159" s="28"/>
+    </row>
+    <row r="160" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="21">
         <v>7</v>
       </c>
-      <c r="B155" s="15" t="s">
+      <c r="B160" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C160" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D160" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E160" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="F160" s="18"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="22"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" s="4">
+        <v>42800</v>
+      </c>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="6"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="12"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B163" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C163" s="24"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="12"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E164" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F164" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G164" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H164" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="14">
+        <v>1</v>
+      </c>
+      <c r="B165" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C165" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D165" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E165" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F165" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G165" s="16"/>
+      <c r="H165" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="14">
+        <v>2</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C166" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D166" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E166" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F166" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G166" s="16"/>
+      <c r="H166" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="14">
+        <v>3</v>
+      </c>
+      <c r="B167" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C167" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D167" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E167" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F167" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G167" s="16"/>
+      <c r="H167" s="17"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="14">
+        <v>4</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C168" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D168" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E168" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="F168" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G168" s="16"/>
+      <c r="H168" s="17"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="25">
+        <v>5</v>
+      </c>
+      <c r="B169" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C155" s="15" t="s">
+      <c r="C169" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D155" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E155" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="F155" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G155" s="16"/>
-      <c r="H155" s="20"/>
-    </row>
-    <row r="156" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="14">
-        <v>8</v>
-      </c>
-      <c r="B156" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="C156" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D156" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E156" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="F156" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G156" s="19"/>
-      <c r="H156" s="22"/>
+      <c r="D169" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E169" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F169" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G169" s="27"/>
+      <c r="H169" s="28"/>
+    </row>
+    <row r="170" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="21">
+        <v>6</v>
+      </c>
+      <c r="B170" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C170" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D170" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E170" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="F170" s="18"/>
+      <c r="G170" s="19"/>
+      <c r="H170" s="22"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" s="29">
+        <v>42816</v>
+      </c>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="6"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B172" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
+      <c r="H172" s="12"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B173" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C173" s="24"/>
+      <c r="D173" s="24"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="12"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E174" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F174" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G174" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H174" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="14">
+        <v>1</v>
+      </c>
+      <c r="B175" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C175" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D175" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E175" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F175" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G175" s="16"/>
+      <c r="H175" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="14">
+        <v>2</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C176" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D176" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E176" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F176" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G176" s="16"/>
+      <c r="H176" s="20"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="14">
+        <v>3</v>
+      </c>
+      <c r="B177" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C177" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D177" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E177" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="F177" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G177" s="16"/>
+      <c r="H177" s="17"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="25">
+        <v>4</v>
+      </c>
+      <c r="B178" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C178" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D178" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E178" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F178" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G178" s="27"/>
+      <c r="H178" s="28"/>
+    </row>
+    <row r="179" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="21">
+        <v>5</v>
+      </c>
+      <c r="B179" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C179" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D179" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E179" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="F179" s="18"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="B163:D163"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B129:D129"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B138:D138"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B129:D129"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hans-sses/doc/SSES 테이블 정의서.xlsx
+++ b/hans-sses/doc/SSES 테이블 정의서.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="232">
   <si>
     <t>DATETIME</t>
   </si>
@@ -487,14 +487,6 @@
     <t>조직정보</t>
   </si>
   <si>
-    <t>TBL_GROUP_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_SEQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조직SEQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -505,9 +497,6 @@
   <si>
     <t>부모조직SEQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_NAME</t>
   </si>
   <si>
     <t>조직명</t>
@@ -864,6 +853,22 @@
   </si>
   <si>
     <t>ELECT_POWER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_COMPANY_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPANY_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPANY_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,7 +876,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -908,6 +913,24 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1107,8 +1130,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1181,9 +1206,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1199,9 +1221,14 @@
     <xf numFmtId="56" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1476,10 +1503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H179"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1535,11 +1562,11 @@
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -1728,7 +1755,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>52</v>
@@ -1783,11 +1810,11 @@
       <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -1912,7 +1939,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>52</v>
@@ -1967,11 +1994,11 @@
       <c r="A24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -2102,7 +2129,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>52</v>
@@ -2157,11 +2184,11 @@
       <c r="A33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -2349,7 +2376,7 @@
         <v>8</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>52</v>
@@ -2404,11 +2431,11 @@
       <c r="A45" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
@@ -2615,7 +2642,7 @@
         <v>9</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>52</v>
@@ -2670,11 +2697,11 @@
       <c r="A58" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
@@ -2711,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>101</v>
@@ -2863,7 +2890,7 @@
         <v>8</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>52</v>
@@ -2918,11 +2945,11 @@
       <c r="A70" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
@@ -2992,7 +3019,7 @@
         <v>29</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>92</v>
@@ -3131,7 +3158,7 @@
         <v>9</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>52</v>
@@ -3169,7 +3196,7 @@
         <v>14</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>122</v>
+        <v>228</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>16</v>
@@ -3186,11 +3213,11 @@
       <c r="A83" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
@@ -3227,10 +3254,10 @@
         <v>1</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>29</v>
@@ -3251,10 +3278,10 @@
         <v>2</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>29</v>
@@ -3271,112 +3298,120 @@
         <v>3</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="G87" s="16"/>
       <c r="H87" s="17"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
+        <v>4</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" s="16"/>
+      <c r="H88" s="17"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="14">
+        <v>5</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H89" s="17"/>
+    </row>
+    <row r="90" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="21">
         <v>6</v>
       </c>
-      <c r="B88" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D88" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E88" s="15" t="s">
+      <c r="B90" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F88" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G88" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H88" s="17"/>
-    </row>
-    <row r="89" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="21">
-        <v>7</v>
-      </c>
-      <c r="B89" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D89" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E89" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="22"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="22"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C90" s="3" t="s">
+      <c r="B91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D91" s="4">
         <v>42800</v>
       </c>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="6"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="12"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B92" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
+        <v>14</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
@@ -3384,135 +3419,127 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="12"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B94" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C94" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D94" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="E94" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F93" s="10" t="s">
+      <c r="F94" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G93" s="10" t="s">
+      <c r="G94" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H93" s="13" t="s">
+      <c r="H94" s="13" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="14">
-        <v>1</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D94" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E94" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F94" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G94" s="16"/>
-      <c r="H94" s="20" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F95" s="15" t="s">
         <v>31</v>
       </c>
       <c r="G95" s="16"/>
       <c r="H95" s="20" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D96" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F96" s="16"/>
+        <v>36</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="G96" s="16"/>
-      <c r="H96" s="17"/>
+      <c r="H96" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F97" s="15" t="s">
-        <v>31</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="F97" s="16"/>
       <c r="G97" s="16"/>
       <c r="H97" s="17"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>220</v>
+        <v>112</v>
       </c>
       <c r="F98" s="15" t="s">
         <v>31</v>
@@ -3522,39 +3549,41 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F99" s="16"/>
+        <v>217</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="G99" s="16"/>
       <c r="H99" s="17"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
@@ -3562,19 +3591,19 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D101" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
@@ -3582,13 +3611,13 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D102" s="15" t="s">
         <v>29</v>
@@ -3602,93 +3631,99 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="14">
+        <v>10</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="17"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="14">
         <v>11</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B104" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C103" s="15" t="s">
+      <c r="C104" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D103" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E103" s="15" t="s">
+      <c r="D104" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F103" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G103" s="16" t="s">
+      <c r="F104" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H103" s="17"/>
-    </row>
-    <row r="104" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="14">
+      <c r="H104" s="17"/>
+    </row>
+    <row r="105" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="14">
         <v>12</v>
       </c>
-      <c r="B104" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C104" s="18" t="s">
+      <c r="B105" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C105" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D104" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E104" s="18" t="s">
+      <c r="D105" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E105" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="22"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="F105" s="19"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="22"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C105" s="3" t="s">
+      <c r="B106" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D106" s="4">
         <v>42800</v>
       </c>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="6"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="12"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="6"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B107" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
+        <v>14</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
       <c r="G107" s="11"/>
@@ -3696,63 +3731,53 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B108" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="12"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B109" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C109" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D109" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="E109" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F108" s="10" t="s">
+      <c r="F109" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G108" s="10" t="s">
+      <c r="G109" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H108" s="13" t="s">
+      <c r="H109" s="13" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="14">
-        <v>1</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D109" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E109" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F109" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G109" s="16"/>
-      <c r="H109" s="20" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D110" s="15" t="s">
         <v>29</v>
@@ -3764,23 +3789,25 @@
         <v>31</v>
       </c>
       <c r="G110" s="16"/>
-      <c r="H110" s="17"/>
+      <c r="H110" s="20" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D111" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="F111" s="15" t="s">
         <v>31</v>
@@ -3790,19 +3817,19 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D112" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F112" s="15" t="s">
         <v>31</v>
@@ -3812,93 +3839,101 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
+        <v>4</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F113" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G113" s="16"/>
+      <c r="H113" s="17"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="14">
         <v>5</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B114" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C113" s="15" t="s">
+      <c r="C114" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D113" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E113" s="15" t="s">
+      <c r="D114" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F113" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G113" s="16" t="s">
+      <c r="F114" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G114" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H113" s="17"/>
-    </row>
-    <row r="114" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="21">
+      <c r="H114" s="17"/>
+    </row>
+    <row r="115" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="21">
         <v>6</v>
       </c>
-      <c r="B114" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C114" s="18" t="s">
+      <c r="B115" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C115" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D114" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E114" s="18" t="s">
+      <c r="D115" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E115" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="22"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="22"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C115" s="3" t="s">
+      <c r="B116" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D116" s="4">
         <v>42800</v>
       </c>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="6"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="12"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="6"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B117" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24"/>
+        <v>14</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
@@ -3906,111 +3941,105 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="12"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B119" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C119" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D119" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E118" s="10" t="s">
+      <c r="E119" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F118" s="10" t="s">
+      <c r="F119" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G118" s="10" t="s">
+      <c r="G119" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H118" s="13" t="s">
+      <c r="H119" s="13" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="14">
-        <v>1</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="D119" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E119" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F119" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G119" s="16"/>
-      <c r="H119" s="20" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D120" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F120" s="15" t="s">
         <v>31</v>
       </c>
       <c r="G120" s="16"/>
-      <c r="H120" s="17"/>
+      <c r="H120" s="20" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D121" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="F121" s="16"/>
+        <v>154</v>
+      </c>
+      <c r="F121" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="G121" s="16"/>
       <c r="H121" s="17"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D122" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
@@ -4018,19 +4047,19 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D123" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="F123" s="16"/>
       <c r="G123" s="16"/>
@@ -4038,41 +4067,39 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D124" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F124" s="15" t="s">
-        <v>31</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="F124" s="16"/>
       <c r="G124" s="16"/>
       <c r="H124" s="17"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="D125" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="F125" s="15" t="s">
         <v>31</v>
@@ -4080,71 +4107,79 @@
       <c r="G125" s="16"/>
       <c r="H125" s="17"/>
     </row>
-    <row r="126" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="21">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="14">
+        <v>7</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E126" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F126" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G126" s="16"/>
+      <c r="H126" s="17"/>
+    </row>
+    <row r="127" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="21">
         <v>8</v>
       </c>
-      <c r="B126" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C126" s="18" t="s">
+      <c r="B127" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C127" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D126" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E126" s="18" t="s">
+      <c r="D127" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E127" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="22"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="F127" s="19"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="22"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C127" s="3" t="s">
+      <c r="B128" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D127" s="4">
+      <c r="D128" s="4">
         <v>42800</v>
       </c>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="6"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="12"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="6"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B129" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C129" s="24"/>
-      <c r="D129" s="24"/>
+        <v>14</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
       <c r="G129" s="11"/>
@@ -4152,93 +4187,83 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B130" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C130" s="29"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="12"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B131" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C131" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D131" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E130" s="10" t="s">
+      <c r="E131" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F130" s="10" t="s">
+      <c r="F131" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G130" s="10" t="s">
+      <c r="G131" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H130" s="13" t="s">
+      <c r="H131" s="13" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="14">
-        <v>1</v>
-      </c>
-      <c r="B131" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D131" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E131" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F131" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G131" s="16"/>
-      <c r="H131" s="20" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="D132" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="F132" s="15" t="s">
         <v>31</v>
       </c>
       <c r="G132" s="16"/>
       <c r="H132" s="20" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>228</v>
+        <v>128</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D133" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="F133" s="15" t="s">
         <v>31</v>
@@ -4250,113 +4275,123 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D134" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F134" s="15" t="s">
         <v>31</v>
       </c>
       <c r="G134" s="16"/>
-      <c r="H134" s="17"/>
+      <c r="H134" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="14">
+        <v>4</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D135" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E135" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F135" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G135" s="16"/>
+      <c r="H135" s="17"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="14">
         <v>5</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B136" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C135" s="15" t="s">
+      <c r="C136" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D135" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E135" s="15" t="s">
+      <c r="D136" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E136" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F135" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G135" s="27"/>
-      <c r="H135" s="28"/>
-    </row>
-    <row r="136" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="21">
+      <c r="F136" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G136" s="26"/>
+      <c r="H136" s="27"/>
+    </row>
+    <row r="137" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="21">
         <v>6</v>
       </c>
-      <c r="B136" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C136" s="18" t="s">
+      <c r="B137" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C137" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D136" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E136" s="18" t="s">
+      <c r="D137" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E137" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="22"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="F137" s="19"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="22"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C137" s="3" t="s">
+      <c r="B138" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D137" s="4">
+      <c r="D138" s="4">
         <v>42800</v>
       </c>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="6"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E138" s="11"/>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="12"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="6"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B139" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="C139" s="24"/>
-      <c r="D139" s="24"/>
+        <v>14</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
       <c r="G139" s="11"/>
@@ -4364,91 +4399,83 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B140" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="12"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B141" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C140" s="10" t="s">
+      <c r="C141" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D140" s="10" t="s">
+      <c r="D141" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E140" s="10" t="s">
+      <c r="E141" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F140" s="10" t="s">
+      <c r="F141" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G140" s="10" t="s">
+      <c r="G141" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H140" s="13" t="s">
+      <c r="H141" s="13" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="14">
-        <v>1</v>
-      </c>
-      <c r="B141" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C141" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D141" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E141" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="F141" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G141" s="16"/>
-      <c r="H141" s="20" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D142" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E142" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F142" s="15" t="s">
         <v>31</v>
       </c>
       <c r="G142" s="16"/>
-      <c r="H142" s="20"/>
+      <c r="H142" s="20" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="14">
+        <v>2</v>
+      </c>
+      <c r="B143" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B143" s="15" t="s">
-        <v>2</v>
-      </c>
       <c r="C143" s="15" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D143" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="F143" s="15" t="s">
         <v>31</v>
@@ -4458,19 +4485,19 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>192</v>
+        <v>2</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D144" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E144" s="15" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="F144" s="15" t="s">
         <v>31</v>
@@ -4480,157 +4507,165 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D145" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E145" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F145" s="15"/>
-      <c r="G145" s="16">
-        <v>0</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="F145" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G145" s="16"/>
       <c r="H145" s="20"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D146" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E146" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F146" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G146" s="16"/>
+        <v>220</v>
+      </c>
+      <c r="F146" s="15"/>
+      <c r="G146" s="16">
+        <v>0</v>
+      </c>
       <c r="H146" s="20"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="D147" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E147" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="F147" s="15"/>
-      <c r="G147" s="16" t="s">
-        <v>227</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F147" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G147" s="16"/>
       <c r="H147" s="20"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="14">
+        <v>7</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C148" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D148" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E148" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F148" s="15"/>
+      <c r="G148" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="H148" s="20"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="14">
         <v>8</v>
       </c>
-      <c r="B148" s="15" t="s">
+      <c r="B149" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C148" s="15" t="s">
+      <c r="C149" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D148" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E148" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="F148" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G148" s="16"/>
-      <c r="H148" s="20"/>
-    </row>
-    <row r="149" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="14">
+      <c r="D149" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E149" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F149" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G149" s="16"/>
+      <c r="H149" s="20"/>
+    </row>
+    <row r="150" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="14">
         <v>9</v>
       </c>
-      <c r="B149" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C149" s="18" t="s">
+      <c r="B150" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C150" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D149" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E149" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="F149" s="18"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="22"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="D150" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E150" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="F150" s="18"/>
+      <c r="G150" s="19"/>
+      <c r="H150" s="22"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C150" s="3" t="s">
+      <c r="B151" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D150" s="29">
+      <c r="D151" s="28">
         <v>42816</v>
       </c>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="6"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B151" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D151" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E151" s="11"/>
-      <c r="F151" s="11"/>
-      <c r="G151" s="11"/>
-      <c r="H151" s="12"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="6"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B152" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="C152" s="24"/>
-      <c r="D152" s="24"/>
+        <v>14</v>
+      </c>
+      <c r="B152" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
@@ -4638,87 +4673,77 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B153" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C153" s="29"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="12"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B154" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C153" s="10" t="s">
+      <c r="C154" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D153" s="10" t="s">
+      <c r="D154" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E153" s="10" t="s">
+      <c r="E154" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F153" s="10" t="s">
+      <c r="F154" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G153" s="10" t="s">
+      <c r="G154" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H153" s="13" t="s">
+      <c r="H154" s="13" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="14">
-        <v>1</v>
-      </c>
-      <c r="B154" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C154" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D154" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E154" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F154" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G154" s="16"/>
-      <c r="H154" s="20" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="D155" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E155" s="15" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="F155" s="15" t="s">
         <v>31</v>
       </c>
       <c r="G155" s="16"/>
       <c r="H155" s="20" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>201</v>
+        <v>129</v>
       </c>
       <c r="D156" s="15" t="s">
         <v>29</v>
@@ -4730,23 +4755,25 @@
         <v>31</v>
       </c>
       <c r="G156" s="16"/>
-      <c r="H156" s="17"/>
+      <c r="H156" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D157" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E157" s="15" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="F157" s="15" t="s">
         <v>31</v>
@@ -4755,112 +4782,120 @@
       <c r="H157" s="17"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="25">
+      <c r="A158" s="14">
+        <v>4</v>
+      </c>
+      <c r="B158" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C158" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D158" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E158" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F158" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G158" s="16"/>
+      <c r="H158" s="17"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="24">
         <v>5</v>
       </c>
-      <c r="B158" s="26" t="s">
+      <c r="B159" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C159" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D159" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E159" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="C158" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="D158" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="E158" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="F158" s="26"/>
-      <c r="G158" s="27"/>
-      <c r="H158" s="28"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="25">
+      <c r="F159" s="25"/>
+      <c r="G159" s="26"/>
+      <c r="H159" s="27"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="24">
         <v>6</v>
       </c>
-      <c r="B159" s="15" t="s">
+      <c r="B160" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C159" s="15" t="s">
+      <c r="C160" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D159" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E159" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="F159" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G159" s="27"/>
-      <c r="H159" s="28"/>
-    </row>
-    <row r="160" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="21">
+      <c r="D160" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E160" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F160" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G160" s="26"/>
+      <c r="H160" s="27"/>
+    </row>
+    <row r="161" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="21">
         <v>7</v>
       </c>
-      <c r="B160" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C160" s="18" t="s">
+      <c r="B161" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C161" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D160" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E160" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="F160" s="18"/>
-      <c r="G160" s="19"/>
-      <c r="H160" s="22"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="D161" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E161" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="F161" s="18"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="22"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C161" s="3" t="s">
+      <c r="B162" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D161" s="4">
+      <c r="D162" s="4">
         <v>42800</v>
       </c>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="6"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B162" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D162" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E162" s="11"/>
-      <c r="F162" s="11"/>
-      <c r="G162" s="11"/>
-      <c r="H162" s="12"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="6"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B163" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="C163" s="24"/>
-      <c r="D163" s="24"/>
+        <v>14</v>
+      </c>
+      <c r="B163" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="E163" s="11"/>
       <c r="F163" s="11"/>
       <c r="G163" s="11"/>
@@ -4868,87 +4903,77 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B164" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C164" s="29"/>
+      <c r="D164" s="29"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="12"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B165" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C164" s="10" t="s">
+      <c r="C165" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D164" s="10" t="s">
+      <c r="D165" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E164" s="10" t="s">
+      <c r="E165" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F164" s="10" t="s">
+      <c r="F165" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G164" s="10" t="s">
+      <c r="G165" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H164" s="13" t="s">
+      <c r="H165" s="13" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="14">
-        <v>1</v>
-      </c>
-      <c r="B165" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C165" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D165" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E165" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F165" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G165" s="16"/>
-      <c r="H165" s="20" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="C166" s="15" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="D166" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E166" s="15" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="F166" s="15" t="s">
         <v>31</v>
       </c>
       <c r="G166" s="16"/>
       <c r="H166" s="20" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="D167" s="15" t="s">
         <v>29</v>
@@ -4960,23 +4985,25 @@
         <v>31</v>
       </c>
       <c r="G167" s="16"/>
-      <c r="H167" s="17"/>
+      <c r="H167" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C168" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D168" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E168" s="15" t="s">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c r="F168" s="15" t="s">
         <v>31</v>
@@ -4985,92 +5012,100 @@
       <c r="H168" s="17"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="25">
+      <c r="A169" s="14">
+        <v>4</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C169" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D169" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E169" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F169" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G169" s="16"/>
+      <c r="H169" s="17"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="24">
         <v>5</v>
       </c>
-      <c r="B169" s="15" t="s">
+      <c r="B170" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C169" s="15" t="s">
+      <c r="C170" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D169" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E169" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="F169" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G169" s="27"/>
-      <c r="H169" s="28"/>
-    </row>
-    <row r="170" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="21">
+      <c r="D170" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E170" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F170" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G170" s="26"/>
+      <c r="H170" s="27"/>
+    </row>
+    <row r="171" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="21">
         <v>6</v>
       </c>
-      <c r="B170" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C170" s="18" t="s">
+      <c r="B171" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C171" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D170" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E170" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="F170" s="18"/>
-      <c r="G170" s="19"/>
-      <c r="H170" s="22"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+      <c r="D171" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E171" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="F171" s="18"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="22"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C171" s="3" t="s">
+      <c r="B172" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D171" s="29">
+      <c r="D172" s="28">
         <v>42816</v>
       </c>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="6"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B172" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D172" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E172" s="11"/>
-      <c r="F172" s="11"/>
-      <c r="G172" s="11"/>
-      <c r="H172" s="12"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="6"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B173" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="C173" s="24"/>
-      <c r="D173" s="24"/>
+        <v>14</v>
+      </c>
+      <c r="B173" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="E173" s="11"/>
       <c r="F173" s="11"/>
       <c r="G173" s="11"/>
@@ -5078,152 +5113,166 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B174" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C174" s="29"/>
+      <c r="D174" s="29"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
+      <c r="H174" s="12"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B174" s="10" t="s">
+      <c r="B175" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C174" s="10" t="s">
+      <c r="C175" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D174" s="10" t="s">
+      <c r="D175" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E174" s="10" t="s">
+      <c r="E175" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F174" s="10" t="s">
+      <c r="F175" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G174" s="10" t="s">
+      <c r="G175" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H174" s="13" t="s">
+      <c r="H175" s="13" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="14">
-        <v>1</v>
-      </c>
-      <c r="B175" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C175" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D175" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E175" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F175" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G175" s="16"/>
-      <c r="H175" s="20" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C176" s="15" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="D176" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E176" s="15" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="F176" s="15" t="s">
         <v>31</v>
       </c>
       <c r="G176" s="16"/>
-      <c r="H176" s="20"/>
+      <c r="H176" s="20" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="14">
+        <v>2</v>
+      </c>
+      <c r="B177" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C177" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D177" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E177" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F177" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G177" s="16"/>
+      <c r="H177" s="20"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="14">
         <v>3</v>
       </c>
-      <c r="B177" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="C177" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D177" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E177" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="F177" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G177" s="16"/>
-      <c r="H177" s="17"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="25">
+      <c r="B178" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C178" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D178" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E178" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F178" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G178" s="16"/>
+      <c r="H178" s="17"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="24">
         <v>4</v>
       </c>
-      <c r="B178" s="15" t="s">
+      <c r="B179" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C178" s="15" t="s">
+      <c r="C179" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D178" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E178" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="F178" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G178" s="27"/>
-      <c r="H178" s="28"/>
-    </row>
-    <row r="179" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="21">
+      <c r="D179" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E179" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F179" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G179" s="26"/>
+      <c r="H179" s="27"/>
+    </row>
+    <row r="180" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="21">
         <v>5</v>
       </c>
-      <c r="B179" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C179" s="18" t="s">
+      <c r="B180" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C180" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D179" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E179" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="F179" s="18"/>
-      <c r="G179" s="19"/>
-      <c r="H179" s="22"/>
+      <c r="D180" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E180" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="F180" s="18"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="B163:D163"/>
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="B164:D164"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B140:D140"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B130:D130"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B15:D15"/>
@@ -5233,5 +5282,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/hans-sses/doc/SSES 테이블 정의서.xlsx
+++ b/hans-sses/doc/SSES 테이블 정의서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29480" yWindow="740" windowWidth="35700" windowHeight="19060" tabRatio="500"/>
+    <workbookView xWindow="2460" yWindow="460" windowWidth="35700" windowHeight="16300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sheet2" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="237">
   <si>
     <t>DATETIME</t>
   </si>
@@ -509,12 +509,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IDENTITY_CODE</t>
-  </si>
-  <si>
-    <t>식별코드</t>
-  </si>
-  <si>
     <t>BIRTHDAY</t>
   </si>
   <si>
@@ -737,12 +731,6 @@
     <t>로그정보</t>
   </si>
   <si>
-    <t>PART_CODE</t>
-  </si>
-  <si>
-    <t>구분코드</t>
-  </si>
-  <si>
     <t>VALUE</t>
   </si>
   <si>
@@ -848,10 +836,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ELECT_POWER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -869,6 +853,46 @@
   </si>
   <si>
     <t>COMPANY_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIP_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근태관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_ATTENDANCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,7 +957,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -943,6 +967,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,12 +1160,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1224,11 +1256,94 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="3" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1503,15 +1618,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H180"/>
+  <dimension ref="A1:H191"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="J89" sqref="J89"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A125" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="I147" sqref="I147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.42578125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
@@ -1519,7 +1634,7 @@
     <col min="6" max="6" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.7109375" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="7.5703125" style="7"/>
+    <col min="9" max="16384" width="7.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1562,11 +1677,11 @@
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -1755,7 +1870,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>52</v>
@@ -1810,11 +1925,11 @@
       <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -1939,7 +2054,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>52</v>
@@ -1994,11 +2109,11 @@
       <c r="A24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -2129,7 +2244,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>52</v>
@@ -2184,11 +2299,11 @@
       <c r="A33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -2376,7 +2491,7 @@
         <v>8</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>52</v>
@@ -2431,11 +2546,11 @@
       <c r="A45" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
@@ -2642,7 +2757,7 @@
         <v>9</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>52</v>
@@ -2697,11 +2812,11 @@
       <c r="A58" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
@@ -2738,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>101</v>
@@ -2890,7 +3005,7 @@
         <v>8</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>52</v>
@@ -2945,11 +3060,11 @@
       <c r="A70" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
@@ -3019,7 +3134,7 @@
         <v>29</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>92</v>
@@ -3158,7 +3273,7 @@
         <v>9</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>52</v>
@@ -3196,7 +3311,7 @@
         <v>14</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>16</v>
@@ -3213,11 +3328,11 @@
       <c r="A83" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
@@ -3254,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>122</v>
@@ -3301,7 +3416,7 @@
         <v>95</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>29</v>
@@ -3320,7 +3435,7 @@
         <v>4</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>125</v>
@@ -3366,7 +3481,7 @@
         <v>6</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C90" s="18" t="s">
         <v>52</v>
@@ -3421,11 +3536,11 @@
       <c r="A93" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="29" t="s">
+      <c r="B93" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
@@ -3462,16 +3577,16 @@
         <v>1</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>128</v>
+        <v>229</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>129</v>
+        <v>230</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F95" s="15" t="s">
         <v>31</v>
@@ -3486,7 +3601,7 @@
         <v>2</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>122</v>
@@ -3510,16 +3625,16 @@
         <v>4</v>
       </c>
       <c r="B97" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>132</v>
       </c>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
@@ -3530,10 +3645,10 @@
         <v>5</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>29</v>
@@ -3555,13 +3670,13 @@
         <v>41</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F99" s="15" t="s">
         <v>31</v>
@@ -3574,10 +3689,10 @@
         <v>7</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>29</v>
@@ -3594,16 +3709,16 @@
         <v>8</v>
       </c>
       <c r="B101" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D101" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E101" s="15" t="s">
-        <v>140</v>
       </c>
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
@@ -3614,10 +3729,10 @@
         <v>9</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D102" s="15" t="s">
         <v>29</v>
@@ -3634,10 +3749,10 @@
         <v>10</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D103" s="15" t="s">
         <v>29</v>
@@ -3678,7 +3793,7 @@
         <v>12</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C105" s="18" t="s">
         <v>52</v>
@@ -3698,7 +3813,7 @@
         <v>11</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>13</v>
@@ -3716,7 +3831,7 @@
         <v>14</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>16</v>
@@ -3733,11 +3848,11 @@
       <c r="A108" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B108" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C108" s="29"/>
-      <c r="D108" s="29"/>
+      <c r="B108" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
@@ -3774,10 +3889,10 @@
         <v>1</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D110" s="15" t="s">
         <v>29</v>
@@ -3798,10 +3913,10 @@
         <v>2</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D111" s="15" t="s">
         <v>29</v>
@@ -3820,16 +3935,16 @@
         <v>3</v>
       </c>
       <c r="B112" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E112" s="15" t="s">
         <v>152</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E112" s="15" t="s">
-        <v>154</v>
       </c>
       <c r="F112" s="15" t="s">
         <v>31</v>
@@ -3842,16 +3957,16 @@
         <v>4</v>
       </c>
       <c r="B113" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E113" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D113" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E113" s="15" t="s">
-        <v>157</v>
       </c>
       <c r="F113" s="15" t="s">
         <v>31</v>
@@ -3888,7 +4003,7 @@
         <v>6</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C115" s="18" t="s">
         <v>52</v>
@@ -3908,7 +4023,7 @@
         <v>11</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>13</v>
@@ -3926,7 +4041,7 @@
         <v>14</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C117" s="10" t="s">
         <v>16</v>
@@ -3943,11 +4058,11 @@
       <c r="A118" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B118" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="C118" s="29"/>
-      <c r="D118" s="29"/>
+      <c r="B118" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
@@ -3984,16 +4099,16 @@
         <v>1</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D120" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F120" s="15" t="s">
         <v>31</v>
@@ -4011,13 +4126,13 @@
         <v>41</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D121" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F121" s="15" t="s">
         <v>31</v>
@@ -4030,16 +4145,16 @@
         <v>3</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D122" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
@@ -4050,16 +4165,16 @@
         <v>4</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D123" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>226</v>
+        <v>64</v>
       </c>
       <c r="F123" s="16"/>
       <c r="G123" s="16"/>
@@ -4070,16 +4185,16 @@
         <v>5</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D124" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
@@ -4090,16 +4205,16 @@
         <v>6</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D125" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F125" s="15" t="s">
         <v>31</v>
@@ -4134,7 +4249,7 @@
         <v>8</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C127" s="18" t="s">
         <v>52</v>
@@ -4154,7 +4269,7 @@
         <v>11</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>13</v>
@@ -4172,7 +4287,7 @@
         <v>14</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C129" s="10" t="s">
         <v>16</v>
@@ -4189,11 +4304,11 @@
       <c r="A130" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B130" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="C130" s="29"/>
-      <c r="D130" s="29"/>
+      <c r="B130" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C130" s="30"/>
+      <c r="D130" s="30"/>
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
       <c r="G130" s="11"/>
@@ -4230,16 +4345,16 @@
         <v>1</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D132" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F132" s="15" t="s">
         <v>31</v>
@@ -4254,16 +4369,16 @@
         <v>2</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>128</v>
+        <v>229</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>129</v>
+        <v>230</v>
       </c>
       <c r="D133" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F133" s="15" t="s">
         <v>31</v>
@@ -4278,16 +4393,16 @@
         <v>3</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D134" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F134" s="15" t="s">
         <v>31</v>
@@ -4302,16 +4417,16 @@
         <v>4</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D135" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F135" s="15" t="s">
         <v>31</v>
@@ -4346,7 +4461,7 @@
         <v>6</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C137" s="18" t="s">
         <v>52</v>
@@ -4366,7 +4481,7 @@
         <v>11</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>13</v>
@@ -4384,7 +4499,7 @@
         <v>14</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C139" s="10" t="s">
         <v>16</v>
@@ -4401,11 +4516,11 @@
       <c r="A140" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B140" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="C140" s="29"/>
-      <c r="D140" s="29"/>
+      <c r="B140" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C140" s="30"/>
+      <c r="D140" s="30"/>
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
@@ -4442,16 +4557,16 @@
         <v>1</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D142" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E142" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F142" s="15" t="s">
         <v>31</v>
@@ -4469,13 +4584,13 @@
         <v>3</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D143" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F143" s="15" t="s">
         <v>31</v>
@@ -4491,13 +4606,13 @@
         <v>2</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D144" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E144" s="15" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F144" s="15" t="s">
         <v>31</v>
@@ -4510,16 +4625,16 @@
         <v>4</v>
       </c>
       <c r="B145" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D145" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E145" s="15" t="s">
         <v>189</v>
-      </c>
-      <c r="C145" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="D145" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E145" s="15" t="s">
-        <v>191</v>
       </c>
       <c r="F145" s="15" t="s">
         <v>31</v>
@@ -4532,16 +4647,16 @@
         <v>5</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D146" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E146" s="15" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F146" s="15"/>
       <c r="G146" s="16">
@@ -4557,7 +4672,7 @@
         <v>27</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D147" s="15" t="s">
         <v>29</v>
@@ -4576,20 +4691,20 @@
         <v>7</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D148" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E148" s="15" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F148" s="15"/>
       <c r="G148" s="16" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H148" s="20"/>
     </row>
@@ -4607,7 +4722,7 @@
         <v>29</v>
       </c>
       <c r="E149" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F149" s="15" t="s">
         <v>31</v>
@@ -4620,7 +4735,7 @@
         <v>9</v>
       </c>
       <c r="B150" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C150" s="18" t="s">
         <v>52</v>
@@ -4629,7 +4744,7 @@
         <v>29</v>
       </c>
       <c r="E150" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F150" s="18"/>
       <c r="G150" s="19"/>
@@ -4640,7 +4755,7 @@
         <v>11</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>13</v>
@@ -4658,7 +4773,7 @@
         <v>14</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C152" s="10" t="s">
         <v>16</v>
@@ -4675,11 +4790,11 @@
       <c r="A153" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B153" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="C153" s="29"/>
-      <c r="D153" s="29"/>
+      <c r="B153" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C153" s="30"/>
+      <c r="D153" s="30"/>
       <c r="E153" s="11"/>
       <c r="F153" s="11"/>
       <c r="G153" s="11"/>
@@ -4716,16 +4831,16 @@
         <v>1</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D155" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E155" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F155" s="15" t="s">
         <v>31</v>
@@ -4735,15 +4850,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="14">
         <v>2</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="D156" s="15" t="s">
         <v>29</v>
@@ -4755,47 +4870,47 @@
         <v>31</v>
       </c>
       <c r="G156" s="16"/>
-      <c r="H156" s="20" t="s">
+      <c r="H156" s="20"/>
+    </row>
+    <row r="157" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="14">
+        <v>2</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C157" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D157" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E157" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F157" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G157" s="16"/>
+      <c r="H157" s="20" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="14">
-        <v>3</v>
-      </c>
-      <c r="B157" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C157" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="D157" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E157" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F157" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G157" s="16"/>
-      <c r="H157" s="17"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="D158" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E158" s="15" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F158" s="15" t="s">
         <v>31</v>
@@ -4804,468 +4919,705 @@
       <c r="H158" s="17"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="24">
-        <v>5</v>
-      </c>
-      <c r="B159" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="C159" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="D159" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="E159" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="F159" s="25"/>
-      <c r="G159" s="26"/>
-      <c r="H159" s="27"/>
+      <c r="A159" s="14">
+        <v>4</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C159" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D159" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E159" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F159" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G159" s="16"/>
+      <c r="H159" s="17"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="24">
-        <v>6</v>
-      </c>
-      <c r="B160" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C160" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D160" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E160" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="F160" s="15" t="s">
-        <v>31</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B160" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C160" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D160" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="E160" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="F160" s="25"/>
       <c r="G160" s="26"/>
       <c r="H160" s="27"/>
     </row>
-    <row r="161" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="21">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="24">
+        <v>6</v>
+      </c>
+      <c r="B161" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C161" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D161" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E161" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F161" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G161" s="26"/>
+      <c r="H161" s="27"/>
+    </row>
+    <row r="162" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="21">
         <v>7</v>
       </c>
-      <c r="B161" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="C161" s="18" t="s">
+      <c r="B162" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C162" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D161" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E161" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F161" s="18"/>
-      <c r="G161" s="19"/>
-      <c r="H161" s="22"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+      <c r="D162" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E162" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="F162" s="18"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="22"/>
+    </row>
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B163" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="C163" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" s="34">
+        <v>42800</v>
+      </c>
+      <c r="E163" s="35"/>
+      <c r="F163" s="35"/>
+      <c r="G163" s="35"/>
+      <c r="H163" s="36"/>
+    </row>
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B164" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C164" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E164" s="40"/>
+      <c r="F164" s="40"/>
+      <c r="G164" s="40"/>
+      <c r="H164" s="41"/>
+    </row>
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B165" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="C165" s="42"/>
+      <c r="D165" s="42"/>
+      <c r="E165" s="40"/>
+      <c r="F165" s="40"/>
+      <c r="G165" s="40"/>
+      <c r="H165" s="41"/>
+    </row>
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C166" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D166" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E166" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F166" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G166" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H166" s="43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="44">
+        <v>1</v>
+      </c>
+      <c r="B167" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="C167" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="D167" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E167" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="F167" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G167" s="46"/>
+      <c r="H167" s="47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="44">
+        <v>2</v>
+      </c>
+      <c r="B168" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="C168" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D168" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E168" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F168" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G168" s="46"/>
+      <c r="H168" s="47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="44">
+        <v>3</v>
+      </c>
+      <c r="B169" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C169" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D169" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E169" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F169" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G169" s="46"/>
+      <c r="H169" s="48"/>
+    </row>
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="44">
+        <v>4</v>
+      </c>
+      <c r="B170" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C170" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D170" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E170" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="F170" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G170" s="46"/>
+      <c r="H170" s="48"/>
+    </row>
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="49">
+        <v>5</v>
+      </c>
+      <c r="B171" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C171" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D171" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E171" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="F171" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G171" s="50"/>
+      <c r="H171" s="51"/>
+    </row>
+    <row r="172" spans="1:8" ht="19" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="52">
+        <v>6</v>
+      </c>
+      <c r="B172" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="C172" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D172" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E172" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="F172" s="53"/>
+      <c r="G172" s="54"/>
+      <c r="H172" s="55"/>
+    </row>
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B173" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="C173" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D162" s="4">
-        <v>42800</v>
-      </c>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="6"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="8" t="s">
+      <c r="D173" s="56">
+        <v>42816</v>
+      </c>
+      <c r="E173" s="35"/>
+      <c r="F173" s="35"/>
+      <c r="G173" s="35"/>
+      <c r="H173" s="36"/>
+    </row>
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B163" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="C163" s="10" t="s">
+      <c r="B174" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="C174" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D163" s="23" t="s">
+      <c r="D174" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E163" s="11"/>
-      <c r="F163" s="11"/>
-      <c r="G163" s="11"/>
-      <c r="H163" s="12"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="8" t="s">
+      <c r="E174" s="40"/>
+      <c r="F174" s="40"/>
+      <c r="G174" s="40"/>
+      <c r="H174" s="41"/>
+    </row>
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B164" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="C164" s="29"/>
-      <c r="D164" s="29"/>
-      <c r="E164" s="11"/>
-      <c r="F164" s="11"/>
-      <c r="G164" s="11"/>
-      <c r="H164" s="12"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="8" t="s">
+      <c r="B175" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="C175" s="42"/>
+      <c r="D175" s="42"/>
+      <c r="E175" s="40"/>
+      <c r="F175" s="40"/>
+      <c r="G175" s="40"/>
+      <c r="H175" s="41"/>
+    </row>
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B176" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C165" s="10" t="s">
+      <c r="C176" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D165" s="10" t="s">
+      <c r="D176" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E165" s="10" t="s">
+      <c r="E176" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="F165" s="10" t="s">
+      <c r="F176" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G165" s="10" t="s">
+      <c r="G176" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="H165" s="13" t="s">
+      <c r="H176" s="43" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="14">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="44">
         <v>1</v>
       </c>
-      <c r="B166" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C166" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D166" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E166" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="F166" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G166" s="16"/>
-      <c r="H166" s="20" t="s">
+      <c r="B177" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="C177" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="D177" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E177" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="F177" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G177" s="46"/>
+      <c r="H177" s="47" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="14">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="44">
         <v>2</v>
       </c>
-      <c r="B167" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C167" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D167" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E167" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F167" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G167" s="16"/>
-      <c r="H167" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="14">
+      <c r="B178" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="C178" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="D178" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E178" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="F178" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G178" s="46"/>
+      <c r="H178" s="47"/>
+    </row>
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="44">
         <v>3</v>
       </c>
-      <c r="B168" s="15" t="s">
+      <c r="B179" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C168" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D168" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E168" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F168" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G168" s="16"/>
-      <c r="H168" s="17"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="14">
+      <c r="C179" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="D179" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E179" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="F179" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G179" s="46"/>
+      <c r="H179" s="48"/>
+    </row>
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="49">
         <v>4</v>
       </c>
-      <c r="B169" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C169" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="D169" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E169" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="F169" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G169" s="16"/>
-      <c r="H169" s="17"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="24">
+      <c r="B180" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C180" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D180" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E180" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="F180" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G180" s="50"/>
+      <c r="H180" s="51"/>
+    </row>
+    <row r="181" spans="1:8" ht="19" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="52">
         <v>5</v>
       </c>
-      <c r="B170" s="15" t="s">
+      <c r="B181" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="C181" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D181" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E181" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="F181" s="53"/>
+      <c r="G181" s="54"/>
+      <c r="H181" s="55"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" s="28">
+        <v>42828</v>
+      </c>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="6"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B183" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
+      <c r="H183" s="12"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B184" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C184" s="30"/>
+      <c r="D184" s="30"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
+      <c r="H184" s="12"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E185" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F185" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G185" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H185" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="14">
+        <v>1</v>
+      </c>
+      <c r="B186" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C186" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D186" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E186" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F186" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G186" s="16"/>
+      <c r="H186" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="14">
+        <v>2</v>
+      </c>
+      <c r="B187" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C187" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D187" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E187" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F187" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G187" s="16"/>
+      <c r="H187" s="20"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="14">
+        <v>2</v>
+      </c>
+      <c r="B188" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C188" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D188" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E188" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="F188" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G188" s="16"/>
+      <c r="H188" s="20"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="14">
+        <v>3</v>
+      </c>
+      <c r="B189" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C189" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D189" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E189" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F189" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G189" s="16"/>
+      <c r="H189" s="17"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="24">
+        <v>6</v>
+      </c>
+      <c r="B190" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C170" s="15" t="s">
+      <c r="C190" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D170" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E170" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="F170" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G170" s="26"/>
-      <c r="H170" s="27"/>
-    </row>
-    <row r="171" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="21">
-        <v>6</v>
-      </c>
-      <c r="B171" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="C171" s="18" t="s">
+      <c r="D190" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E190" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F190" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G190" s="26"/>
+      <c r="H190" s="27"/>
+    </row>
+    <row r="191" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="21">
+        <v>7</v>
+      </c>
+      <c r="B191" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C191" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D171" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E171" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F171" s="18"/>
-      <c r="G171" s="19"/>
-      <c r="H171" s="22"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D172" s="28">
-        <v>42816</v>
-      </c>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="6"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B173" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D173" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E173" s="11"/>
-      <c r="F173" s="11"/>
-      <c r="G173" s="11"/>
-      <c r="H173" s="12"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B174" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="C174" s="29"/>
-      <c r="D174" s="29"/>
-      <c r="E174" s="11"/>
-      <c r="F174" s="11"/>
-      <c r="G174" s="11"/>
-      <c r="H174" s="12"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B175" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D175" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E175" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F175" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G175" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H175" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="14">
-        <v>1</v>
-      </c>
-      <c r="B176" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C176" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D176" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E176" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="F176" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G176" s="16"/>
-      <c r="H176" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="14">
-        <v>2</v>
-      </c>
-      <c r="B177" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C177" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="D177" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E177" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="F177" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G177" s="16"/>
-      <c r="H177" s="20"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="14">
-        <v>3</v>
-      </c>
-      <c r="B178" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C178" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="D178" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E178" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="F178" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G178" s="16"/>
-      <c r="H178" s="17"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="24">
-        <v>4</v>
-      </c>
-      <c r="B179" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C179" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D179" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E179" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="F179" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G179" s="26"/>
-      <c r="H179" s="27"/>
-    </row>
-    <row r="180" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="21">
-        <v>5</v>
-      </c>
-      <c r="B180" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="C180" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D180" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E180" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F180" s="18"/>
-      <c r="G180" s="19"/>
-      <c r="H180" s="22"/>
+      <c r="D191" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E191" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="F191" s="18"/>
+      <c r="G191" s="19"/>
+      <c r="H191" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="B184:D184"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="B153:D153"/>
-    <mergeCell ref="B164:D164"/>
-    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B165:D165"/>
+    <mergeCell ref="B175:D175"/>
     <mergeCell ref="B140:D140"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="B83:D83"/>
@@ -5273,12 +5625,6 @@
     <mergeCell ref="B108:D108"/>
     <mergeCell ref="B118:D118"/>
     <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B45:D45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hans-sses/doc/SSES 테이블 정의서.xlsx
+++ b/hans-sses/doc/SSES 테이블 정의서.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leogon/IdeaProjects/hans/hans-sses/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kas0610/IdeaProjects/hans/hans-sses/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29480" yWindow="740" windowWidth="35700" windowHeight="19060" tabRatio="500"/>
+    <workbookView xWindow="8080" yWindow="1080" windowWidth="20380" windowHeight="19060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sheet2" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="233">
   <si>
     <t>DATETIME</t>
   </si>
@@ -869,6 +869,10 @@
   </si>
   <si>
     <t>COMPANY_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1505,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H180"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="J89" sqref="J89"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A75" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3552,7 +3556,7 @@
         <v>6</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="C99" s="15" t="s">
         <v>135</v>
@@ -5263,6 +5267,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="B153:D153"/>
     <mergeCell ref="B164:D164"/>
     <mergeCell ref="B174:D174"/>
@@ -5273,12 +5283,6 @@
     <mergeCell ref="B108:D108"/>
     <mergeCell ref="B118:D118"/>
     <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B45:D45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hans-sses/doc/SSES 테이블 정의서.xlsx
+++ b/hans-sses/doc/SSES 테이블 정의서.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leogon/IdeaProjects/hans/hans-sses/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="993"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="240">
   <si>
     <t>엔티티 타입명</t>
   </si>
@@ -337,7 +347,7 @@
     <t>OS</t>
   </si>
   <si>
-    <t>OS </t>
+    <t>OS</t>
   </si>
   <si>
     <t>VARCHAR(1)</t>
@@ -349,7 +359,7 @@
     <t>VER</t>
   </si>
   <si>
-    <t>버전 </t>
+    <t>버전</t>
   </si>
   <si>
     <t>다운로드URL</t>
@@ -475,7 +485,7 @@
     <t>TBL_COMMON_CODE</t>
   </si>
   <si>
-    <t>공통 코드 </t>
+    <t>공통 코드</t>
   </si>
   <si>
     <t>CODE</t>
@@ -680,17 +690,96 @@
   </si>
   <si>
     <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>CHARGE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전력요금</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT(8)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_NAME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일경로</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(32)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(256)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전력정보</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_WATT_INFO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARGE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(4)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT(8)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -699,22 +788,7 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
@@ -726,6 +800,12 @@
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -744,226 +824,259 @@
     </fill>
   </fills>
   <borders count="12">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1022,36 +1135,306 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H195"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H208"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A173" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C196" activeCellId="0" sqref="C196"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.4566929133858"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.4803149606299"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8110236220472"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.54330708661417"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.9803149606299"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.54330708661417"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.4803149606299"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="3.95669291338583"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="8.22834645669291"/>
+    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1444,7 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="n">
+      <c r="D1" s="5">
         <v>42800</v>
       </c>
       <c r="E1" s="6"/>
@@ -1069,7 +1452,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -1087,21 +1470,21 @@
       <c r="G2" s="11"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1510,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -1151,8 +1534,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -1173,8 +1556,8 @@
       <c r="G6" s="16"/>
       <c r="H6" s="17"/>
     </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
         <v>3</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -1195,8 +1578,8 @@
       <c r="G7" s="16"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>4</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -1217,8 +1600,8 @@
       <c r="G8" s="16"/>
       <c r="H8" s="17"/>
     </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
         <v>5</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -1237,8 +1620,8 @@
       <c r="G9" s="16"/>
       <c r="H9" s="17"/>
     </row>
-    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="n">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
         <v>6</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -1257,8 +1640,8 @@
       <c r="G10" s="16"/>
       <c r="H10" s="17"/>
     </row>
-    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="n">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
         <v>7</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -1279,8 +1662,8 @@
       </c>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="n">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
         <v>8</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -1299,7 +1682,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -1309,7 +1692,7 @@
       <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="5">
         <v>42800</v>
       </c>
       <c r="E13" s="6"/>
@@ -1317,7 +1700,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>3</v>
       </c>
@@ -1335,21 +1718,21 @@
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>8</v>
       </c>
@@ -1375,8 +1758,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="n">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
         <v>1</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -1399,8 +1782,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="n">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
         <v>2</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -1421,8 +1804,8 @@
       <c r="G18" s="16"/>
       <c r="H18" s="20"/>
     </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="n">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
         <v>3</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -1441,8 +1824,8 @@
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
     </row>
-    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="n">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <v>4</v>
       </c>
       <c r="B20" s="15" t="s">
@@ -1463,8 +1846,8 @@
       </c>
       <c r="H20" s="17"/>
     </row>
-    <row r="21" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="n">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
         <v>5</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -1483,7 +1866,7 @@
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
     </row>
-    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -1493,7 +1876,7 @@
       <c r="C22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="5">
         <v>42800</v>
       </c>
       <c r="E22" s="6"/>
@@ -1501,7 +1884,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>3</v>
       </c>
@@ -1519,21 +1902,21 @@
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>8</v>
       </c>
@@ -1559,8 +1942,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="n">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
         <v>1</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -1583,8 +1966,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="n">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
         <v>2</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -1607,8 +1990,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="n">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
         <v>3</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -1631,8 +2014,8 @@
       </c>
       <c r="H28" s="17"/>
     </row>
-    <row r="29" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="n">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
         <v>4</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -1653,8 +2036,8 @@
       </c>
       <c r="H29" s="17"/>
     </row>
-    <row r="30" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="n">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
         <v>5</v>
       </c>
       <c r="B30" s="18" t="s">
@@ -1673,7 +2056,7 @@
       <c r="G30" s="16"/>
       <c r="H30" s="17"/>
     </row>
-    <row r="31" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
@@ -1683,7 +2066,7 @@
       <c r="C31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="D31" s="5">
         <v>42800</v>
       </c>
       <c r="E31" s="6"/>
@@ -1691,7 +2074,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>3</v>
       </c>
@@ -1709,21 +2092,21 @@
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>8</v>
       </c>
@@ -1749,8 +2132,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="n">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
         <v>1</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -1773,8 +2156,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="n">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
         <v>2</v>
       </c>
       <c r="B36" s="15" t="s">
@@ -1797,8 +2180,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14" t="n">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
         <v>3</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -1817,8 +2200,8 @@
       <c r="G37" s="16"/>
       <c r="H37" s="17"/>
     </row>
-    <row r="38" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="n">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
         <v>4</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -1839,8 +2222,8 @@
       <c r="G38" s="16"/>
       <c r="H38" s="17"/>
     </row>
-    <row r="39" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14" t="n">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
         <v>5</v>
       </c>
       <c r="B39" s="15" t="s">
@@ -1855,12 +2238,12 @@
       <c r="E39" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="0"/>
+      <c r="F39"/>
       <c r="G39" s="16"/>
       <c r="H39" s="17"/>
     </row>
-    <row r="40" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14" t="n">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
         <v>6</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -1879,8 +2262,8 @@
       <c r="G40" s="16"/>
       <c r="H40" s="17"/>
     </row>
-    <row r="41" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="n">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
         <v>7</v>
       </c>
       <c r="B41" s="15" t="s">
@@ -1901,8 +2284,8 @@
       </c>
       <c r="H41" s="17"/>
     </row>
-    <row r="42" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="n">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
         <v>8</v>
       </c>
       <c r="B42" s="18" t="s">
@@ -1921,7 +2304,7 @@
       <c r="G42" s="16"/>
       <c r="H42" s="17"/>
     </row>
-    <row r="43" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
@@ -1931,7 +2314,7 @@
       <c r="C43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="5" t="n">
+      <c r="D43" s="5">
         <v>42800</v>
       </c>
       <c r="E43" s="6"/>
@@ -1939,7 +2322,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>3</v>
       </c>
@@ -1957,21 +2340,21 @@
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>8</v>
       </c>
@@ -1997,8 +2380,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="n">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
         <v>1</v>
       </c>
       <c r="B47" s="15" t="s">
@@ -2021,8 +2404,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="n">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
         <v>2</v>
       </c>
       <c r="B48" s="15" t="s">
@@ -2041,8 +2424,8 @@
       <c r="G48" s="16"/>
       <c r="H48" s="20"/>
     </row>
-    <row r="49" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14" t="n">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
         <v>3</v>
       </c>
       <c r="B49" s="15" t="s">
@@ -2061,8 +2444,8 @@
       <c r="G49" s="16"/>
       <c r="H49" s="20"/>
     </row>
-    <row r="50" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="n">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
         <v>4</v>
       </c>
       <c r="B50" s="15" t="s">
@@ -2083,8 +2466,8 @@
       </c>
       <c r="H50" s="20"/>
     </row>
-    <row r="51" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14" t="n">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
         <v>5</v>
       </c>
       <c r="B51" s="15" t="s">
@@ -2105,8 +2488,8 @@
       <c r="G51" s="16"/>
       <c r="H51" s="20"/>
     </row>
-    <row r="52" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="n">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
         <v>6</v>
       </c>
       <c r="B52" s="15" t="s">
@@ -2125,8 +2508,8 @@
       <c r="G52" s="16"/>
       <c r="H52" s="17"/>
     </row>
-    <row r="53" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="n">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
         <v>7</v>
       </c>
       <c r="B53" s="15" t="s">
@@ -2145,8 +2528,8 @@
       <c r="G53" s="16"/>
       <c r="H53" s="17"/>
     </row>
-    <row r="54" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14" t="n">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
         <v>8</v>
       </c>
       <c r="B54" s="15" t="s">
@@ -2167,8 +2550,8 @@
       </c>
       <c r="H54" s="17"/>
     </row>
-    <row r="55" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14" t="n">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
         <v>9</v>
       </c>
       <c r="B55" s="18" t="s">
@@ -2187,7 +2570,7 @@
       <c r="G55" s="16"/>
       <c r="H55" s="17"/>
     </row>
-    <row r="56" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>0</v>
       </c>
@@ -2197,7 +2580,7 @@
       <c r="C56" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="5" t="n">
+      <c r="D56" s="5">
         <v>42800</v>
       </c>
       <c r="E56" s="6"/>
@@ -2205,7 +2588,7 @@
       <c r="G56" s="6"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>3</v>
       </c>
@@ -2223,21 +2606,21 @@
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>8</v>
       </c>
@@ -2263,8 +2646,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="14" t="n">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
         <v>1</v>
       </c>
       <c r="B60" s="15" t="s">
@@ -2287,8 +2670,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="14" t="n">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
         <v>2</v>
       </c>
       <c r="B61" s="15" t="s">
@@ -2311,8 +2694,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="14" t="n">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="14">
         <v>3</v>
       </c>
       <c r="B62" s="15" t="s">
@@ -2331,8 +2714,8 @@
       <c r="G62" s="16"/>
       <c r="H62" s="17"/>
     </row>
-    <row r="63" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="14" t="n">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
         <v>4</v>
       </c>
       <c r="B63" s="15" t="s">
@@ -2351,8 +2734,8 @@
       <c r="G63" s="16"/>
       <c r="H63" s="17"/>
     </row>
-    <row r="64" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="14" t="n">
+    <row r="64" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A64" s="14">
         <v>5</v>
       </c>
       <c r="B64" s="15" t="s">
@@ -2373,8 +2756,8 @@
       </c>
       <c r="H64" s="17"/>
     </row>
-    <row r="65" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="14" t="n">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="14">
         <v>6</v>
       </c>
       <c r="B65" s="15" t="s">
@@ -2393,8 +2776,8 @@
       <c r="G65" s="16"/>
       <c r="H65" s="17"/>
     </row>
-    <row r="66" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="14" t="n">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="14">
         <v>7</v>
       </c>
       <c r="B66" s="15" t="s">
@@ -2415,8 +2798,8 @@
       </c>
       <c r="H66" s="17"/>
     </row>
-    <row r="67" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14" t="n">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="14">
         <v>8</v>
       </c>
       <c r="B67" s="18" t="s">
@@ -2435,7 +2818,7 @@
       <c r="G67" s="16"/>
       <c r="H67" s="17"/>
     </row>
-    <row r="68" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>0</v>
       </c>
@@ -2445,7 +2828,7 @@
       <c r="C68" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="5" t="n">
+      <c r="D68" s="5">
         <v>42800</v>
       </c>
       <c r="E68" s="6"/>
@@ -2453,7 +2836,7 @@
       <c r="G68" s="6"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>3</v>
       </c>
@@ -2471,21 +2854,21 @@
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>8</v>
       </c>
@@ -2511,8 +2894,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="14" t="n">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="14">
         <v>1</v>
       </c>
       <c r="B72" s="15" t="s">
@@ -2535,7 +2918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
       <c r="B73" s="15" t="s">
         <v>101</v>
@@ -2553,8 +2936,8 @@
       <c r="G73" s="16"/>
       <c r="H73" s="20"/>
     </row>
-    <row r="74" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="14" t="n">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="14">
         <v>2</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -2577,8 +2960,8 @@
       </c>
       <c r="H74" s="20"/>
     </row>
-    <row r="75" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="14" t="n">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="14">
         <v>3</v>
       </c>
       <c r="B75" s="15" t="s">
@@ -2599,8 +2982,8 @@
       <c r="G75" s="16"/>
       <c r="H75" s="20"/>
     </row>
-    <row r="76" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="14" t="n">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="14">
         <v>4</v>
       </c>
       <c r="B76" s="15" t="s">
@@ -2619,7 +3002,7 @@
       <c r="G76" s="16"/>
       <c r="H76" s="20"/>
     </row>
-    <row r="77" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="14"/>
       <c r="B77" s="15" t="s">
         <v>111</v>
@@ -2637,8 +3020,8 @@
       <c r="G77" s="16"/>
       <c r="H77" s="20"/>
     </row>
-    <row r="78" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="14" t="n">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="14">
         <v>5</v>
       </c>
       <c r="B78" s="15" t="s">
@@ -2657,8 +3040,8 @@
       <c r="G78" s="16"/>
       <c r="H78" s="20"/>
     </row>
-    <row r="79" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="14" t="n">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="14">
         <v>6</v>
       </c>
       <c r="B79" s="15" t="s">
@@ -2677,8 +3060,8 @@
       <c r="G79" s="16"/>
       <c r="H79" s="20"/>
     </row>
-    <row r="80" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="14" t="n">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="14">
         <v>7</v>
       </c>
       <c r="B80" s="15" t="s">
@@ -2697,8 +3080,8 @@
       <c r="G80" s="16"/>
       <c r="H80" s="20"/>
     </row>
-    <row r="81" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="14" t="n">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="14">
         <v>8</v>
       </c>
       <c r="B81" s="15" t="s">
@@ -2719,8 +3102,8 @@
       </c>
       <c r="H81" s="20"/>
     </row>
-    <row r="82" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="14" t="n">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="14">
         <v>9</v>
       </c>
       <c r="B82" s="18" t="s">
@@ -2739,7 +3122,7 @@
       <c r="G82" s="16"/>
       <c r="H82" s="20"/>
     </row>
-    <row r="83" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>0</v>
       </c>
@@ -2749,7 +3132,7 @@
       <c r="C83" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D83" s="5" t="n">
+      <c r="D83" s="5">
         <v>42800</v>
       </c>
       <c r="E83" s="6"/>
@@ -2757,7 +3140,7 @@
       <c r="G83" s="6"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>3</v>
       </c>
@@ -2775,21 +3158,21 @@
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
     </row>
-    <row r="86" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>8</v>
       </c>
@@ -2815,8 +3198,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="14" t="n">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="14">
         <v>1</v>
       </c>
       <c r="B87" s="15" t="s">
@@ -2839,8 +3222,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="14" t="n">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="14">
         <v>2</v>
       </c>
       <c r="B88" s="15" t="s">
@@ -2859,7 +3242,7 @@
       <c r="G88" s="16"/>
       <c r="H88" s="17"/>
     </row>
-    <row r="89" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
       <c r="B89" s="15" t="s">
         <v>82</v>
@@ -2879,8 +3262,8 @@
       <c r="G89" s="16"/>
       <c r="H89" s="17"/>
     </row>
-    <row r="90" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="14" t="n">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="14">
         <v>3</v>
       </c>
       <c r="B90" s="15" t="s">
@@ -2901,8 +3284,8 @@
       <c r="G90" s="16"/>
       <c r="H90" s="17"/>
     </row>
-    <row r="91" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="14" t="n">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="14">
         <v>6</v>
       </c>
       <c r="B91" s="15" t="s">
@@ -2925,8 +3308,8 @@
       </c>
       <c r="H91" s="17"/>
     </row>
-    <row r="92" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="21" t="n">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="21">
         <v>7</v>
       </c>
       <c r="B92" s="18" t="s">
@@ -2945,7 +3328,7 @@
       <c r="G92" s="19"/>
       <c r="H92" s="22"/>
     </row>
-    <row r="93" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>0</v>
       </c>
@@ -2955,7 +3338,7 @@
       <c r="C93" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="5" t="n">
+      <c r="D93" s="5">
         <v>42800</v>
       </c>
       <c r="E93" s="6"/>
@@ -2963,7 +3346,7 @@
       <c r="G93" s="6"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>3</v>
       </c>
@@ -2981,21 +3364,21 @@
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
     </row>
-    <row r="95" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>8</v>
       </c>
@@ -3021,8 +3404,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="14" t="n">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="14">
         <v>1</v>
       </c>
       <c r="B97" s="15" t="s">
@@ -3045,8 +3428,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="14" t="n">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="14">
         <v>2</v>
       </c>
       <c r="B98" s="15" t="s">
@@ -3069,8 +3452,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="14" t="n">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="14">
         <v>4</v>
       </c>
       <c r="B99" s="15" t="s">
@@ -3089,8 +3472,8 @@
       <c r="G99" s="16"/>
       <c r="H99" s="17"/>
     </row>
-    <row r="100" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="14" t="n">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="14">
         <v>5</v>
       </c>
       <c r="B100" s="15" t="s">
@@ -3111,8 +3494,8 @@
       <c r="G100" s="16"/>
       <c r="H100" s="17"/>
     </row>
-    <row r="101" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="14" t="n">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="14">
         <v>6</v>
       </c>
       <c r="B101" s="15" t="s">
@@ -3131,8 +3514,8 @@
       <c r="G101" s="16"/>
       <c r="H101" s="17"/>
     </row>
-    <row r="102" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="14" t="n">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="14">
         <v>7</v>
       </c>
       <c r="B102" s="15" t="s">
@@ -3151,8 +3534,8 @@
       <c r="G102" s="16"/>
       <c r="H102" s="17"/>
     </row>
-    <row r="103" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="14" t="n">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="14">
         <v>8</v>
       </c>
       <c r="B103" s="15" t="s">
@@ -3171,8 +3554,8 @@
       <c r="G103" s="16"/>
       <c r="H103" s="17"/>
     </row>
-    <row r="104" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="14" t="n">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="14">
         <v>9</v>
       </c>
       <c r="B104" s="15" t="s">
@@ -3191,8 +3574,8 @@
       <c r="G104" s="16"/>
       <c r="H104" s="17"/>
     </row>
-    <row r="105" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="14" t="n">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="14">
         <v>10</v>
       </c>
       <c r="B105" s="15" t="s">
@@ -3211,8 +3594,8 @@
       <c r="G105" s="16"/>
       <c r="H105" s="17"/>
     </row>
-    <row r="106" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="14" t="n">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="14">
         <v>11</v>
       </c>
       <c r="B106" s="15" t="s">
@@ -3235,8 +3618,8 @@
       </c>
       <c r="H106" s="17"/>
     </row>
-    <row r="107" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="14" t="n">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="14">
         <v>12</v>
       </c>
       <c r="B107" s="18" t="s">
@@ -3255,7 +3638,7 @@
       <c r="G107" s="19"/>
       <c r="H107" s="22"/>
     </row>
-    <row r="108" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>0</v>
       </c>
@@ -3265,7 +3648,7 @@
       <c r="C108" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D108" s="5" t="n">
+      <c r="D108" s="5">
         <v>42800</v>
       </c>
       <c r="E108" s="6"/>
@@ -3273,7 +3656,7 @@
       <c r="G108" s="6"/>
       <c r="H108" s="7"/>
     </row>
-    <row r="109" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>3</v>
       </c>
@@ -3291,21 +3674,21 @@
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
     </row>
-    <row r="111" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>8</v>
       </c>
@@ -3331,8 +3714,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="14" t="n">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="14">
         <v>1</v>
       </c>
       <c r="B112" s="15" t="s">
@@ -3355,8 +3738,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="14" t="n">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="14">
         <v>2</v>
       </c>
       <c r="B113" s="15" t="s">
@@ -3377,8 +3760,8 @@
       <c r="G113" s="16"/>
       <c r="H113" s="17"/>
     </row>
-    <row r="114" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="14" t="n">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="14">
         <v>3</v>
       </c>
       <c r="B114" s="15" t="s">
@@ -3399,8 +3782,8 @@
       <c r="G114" s="16"/>
       <c r="H114" s="17"/>
     </row>
-    <row r="115" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="14" t="n">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="14">
         <v>4</v>
       </c>
       <c r="B115" s="15" t="s">
@@ -3421,8 +3804,8 @@
       <c r="G115" s="16"/>
       <c r="H115" s="17"/>
     </row>
-    <row r="116" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="14" t="n">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="14">
         <v>5</v>
       </c>
       <c r="B116" s="15" t="s">
@@ -3445,8 +3828,8 @@
       </c>
       <c r="H116" s="17"/>
     </row>
-    <row r="117" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="21" t="n">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="21">
         <v>6</v>
       </c>
       <c r="B117" s="18" t="s">
@@ -3465,7 +3848,7 @@
       <c r="G117" s="19"/>
       <c r="H117" s="22"/>
     </row>
-    <row r="118" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>0</v>
       </c>
@@ -3475,7 +3858,7 @@
       <c r="C118" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D118" s="5" t="n">
+      <c r="D118" s="5">
         <v>42800</v>
       </c>
       <c r="E118" s="6"/>
@@ -3483,7 +3866,7 @@
       <c r="G118" s="6"/>
       <c r="H118" s="7"/>
     </row>
-    <row r="119" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>3</v>
       </c>
@@ -3501,21 +3884,21 @@
       <c r="G119" s="11"/>
       <c r="H119" s="12"/>
     </row>
-    <row r="120" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="25"/>
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
       <c r="H120" s="12"/>
     </row>
-    <row r="121" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>8</v>
       </c>
@@ -3541,8 +3924,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="14" t="n">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="14">
         <v>1</v>
       </c>
       <c r="B122" s="15" t="s">
@@ -3565,8 +3948,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="14" t="n">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="14">
         <v>2</v>
       </c>
       <c r="B123" s="15" t="s">
@@ -3587,8 +3970,8 @@
       <c r="G123" s="16"/>
       <c r="H123" s="17"/>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="14" t="n">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="14">
         <v>3</v>
       </c>
       <c r="B124" s="15" t="s">
@@ -3607,8 +3990,8 @@
       <c r="G124" s="16"/>
       <c r="H124" s="17"/>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="14" t="n">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="14">
         <v>4</v>
       </c>
       <c r="B125" s="15" t="s">
@@ -3627,8 +4010,8 @@
       <c r="G125" s="16"/>
       <c r="H125" s="17"/>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="14" t="n">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="14">
         <v>5</v>
       </c>
       <c r="B126" s="15" t="s">
@@ -3647,8 +4030,8 @@
       <c r="G126" s="16"/>
       <c r="H126" s="17"/>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="14" t="n">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="14">
         <v>6</v>
       </c>
       <c r="B127" s="15" t="s">
@@ -3663,14 +4046,12 @@
       <c r="E127" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F127" s="15" t="s">
-        <v>20</v>
-      </c>
+      <c r="F127" s="15"/>
       <c r="G127" s="16"/>
       <c r="H127" s="17"/>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="14" t="n">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="14">
         <v>7</v>
       </c>
       <c r="B128" s="15" t="s">
@@ -3689,187 +4070,183 @@
       <c r="G128" s="16"/>
       <c r="H128" s="17"/>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="14" t="n">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="14">
         <v>8</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="E129" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F129" s="15" t="s">
-        <v>20</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="F129" s="15"/>
       <c r="G129" s="16"/>
       <c r="H129" s="17"/>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="14" t="n">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="14">
         <v>9</v>
       </c>
-      <c r="B130" s="18" t="s">
+      <c r="B130" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D130" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F130" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G130" s="16"/>
+      <c r="H130" s="17"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="14">
+        <v>10</v>
+      </c>
+      <c r="B131" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C131" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D130" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E130" s="18" t="s">
+      <c r="D131" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E131" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
-      <c r="H130" s="22"/>
-    </row>
-    <row r="131" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="s">
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="22"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B132" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C132" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D131" s="5" t="n">
+      <c r="D132" s="5">
         <v>42800</v>
       </c>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="7"/>
-    </row>
-    <row r="132" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="8" t="s">
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="7"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B133" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C133" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D133" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="11"/>
-      <c r="F132" s="11"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="12"/>
-    </row>
-    <row r="133" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
       <c r="G133" s="11"/>
       <c r="H133" s="12"/>
     </row>
-    <row r="134" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C134" s="25"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="12"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B135" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C135" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D134" s="10" t="s">
+      <c r="D135" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E134" s="10" t="s">
+      <c r="E135" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F134" s="10" t="s">
+      <c r="F135" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G134" s="10" t="s">
+      <c r="G135" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H134" s="13" t="s">
+      <c r="H135" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="14" t="n">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="14">
         <v>1</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B136" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C135" s="15" t="s">
+      <c r="C136" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D135" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E135" s="15" t="s">
+      <c r="D136" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="F135" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G135" s="16"/>
-      <c r="H135" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="B136" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C136" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D136" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E136" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="F136" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G136" s="16"/>
       <c r="H136" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="14" t="n">
-        <v>3</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="14">
+        <v>2</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D137" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E137" s="15" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F137" s="15" t="s">
         <v>20</v>
@@ -3879,231 +4256,233 @@
         <v>63</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="14" t="n">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="14">
+        <v>3</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D138" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E138" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F138" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G138" s="16"/>
+      <c r="H138" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="14">
         <v>4</v>
       </c>
-      <c r="B138" s="15" t="s">
+      <c r="B139" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C138" s="15" t="s">
+      <c r="C139" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="D138" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E138" s="15" t="s">
+      <c r="D139" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F138" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G138" s="16"/>
-      <c r="H138" s="17"/>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="14" t="n">
+      <c r="F139" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G139" s="16"/>
+      <c r="H139" s="17"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="14">
         <v>5</v>
       </c>
-      <c r="B139" s="15" t="s">
+      <c r="B140" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C139" s="15" t="s">
+      <c r="C140" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D139" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E139" s="15" t="s">
+      <c r="D140" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F139" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G139" s="23"/>
-      <c r="H139" s="24"/>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="14" t="n">
+      <c r="F140" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G140" s="23"/>
+      <c r="H140" s="24"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="14">
         <v>6</v>
       </c>
-      <c r="B140" s="18" t="s">
+      <c r="B141" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C140" s="18" t="s">
+      <c r="C141" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D140" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E140" s="18" t="s">
+      <c r="D141" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E141" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="22"/>
-    </row>
-    <row r="141" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2" t="s">
+      <c r="F141" s="19"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="22"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B142" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C142" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D141" s="5" t="n">
+      <c r="D142" s="5">
         <v>42800</v>
       </c>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="7"/>
-    </row>
-    <row r="142" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="8" t="s">
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="7"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B143" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C142" s="10" t="s">
+      <c r="C143" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D142" s="9" t="s">
+      <c r="D143" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E142" s="11"/>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="12"/>
-    </row>
-    <row r="143" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
       <c r="G143" s="11"/>
       <c r="H143" s="12"/>
     </row>
-    <row r="144" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C144" s="25"/>
+      <c r="D144" s="25"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="12"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B145" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C144" s="10" t="s">
+      <c r="C145" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D144" s="10" t="s">
+      <c r="D145" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E144" s="10" t="s">
+      <c r="E145" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F144" s="10" t="s">
+      <c r="F145" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G144" s="10" t="s">
+      <c r="G145" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H144" s="13" t="s">
+      <c r="H145" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="14" t="n">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="14">
         <v>1</v>
       </c>
-      <c r="B145" s="15" t="s">
+      <c r="B146" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C145" s="15" t="s">
+      <c r="C146" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D145" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="15" t="s">
+      <c r="D146" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E146" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="F145" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G145" s="16"/>
-      <c r="H145" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="B146" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C146" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D146" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E146" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="F146" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G146" s="16"/>
       <c r="H146" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="14">
+        <v>2</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D147" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E147" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F147" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G147" s="16"/>
+      <c r="H147" s="20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="14" t="n">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="14">
         <v>3</v>
       </c>
-      <c r="B147" s="15" t="s">
+      <c r="B148" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="C147" s="15" t="s">
+      <c r="C148" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D147" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E147" s="15" t="s">
+      <c r="D148" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E148" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="F147" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G147" s="16"/>
-      <c r="H147" s="17"/>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B148" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C148" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="D148" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E148" s="15" t="s">
-        <v>190</v>
       </c>
       <c r="F148" s="15" t="s">
         <v>20</v>
@@ -4111,185 +4490,185 @@
       <c r="G148" s="16"/>
       <c r="H148" s="17"/>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="14" t="n">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="14">
+        <v>4</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E149" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F149" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G149" s="16"/>
+      <c r="H149" s="17"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="14">
         <v>5</v>
       </c>
-      <c r="B149" s="15" t="s">
+      <c r="B150" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C149" s="15" t="s">
+      <c r="C150" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D149" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E149" s="15" t="s">
+      <c r="D150" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E150" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F149" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G149" s="23"/>
-      <c r="H149" s="24"/>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="14" t="n">
+      <c r="F150" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G150" s="23"/>
+      <c r="H150" s="24"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="14">
         <v>6</v>
       </c>
-      <c r="B150" s="18" t="s">
+      <c r="B151" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C150" s="18" t="s">
+      <c r="C151" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D150" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E150" s="18" t="s">
+      <c r="D151" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E151" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="22"/>
-    </row>
-    <row r="151" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2" t="s">
+      <c r="F151" s="19"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="22"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B152" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C152" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D151" s="5" t="n">
+      <c r="D152" s="5">
         <v>42800</v>
       </c>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6"/>
-      <c r="G151" s="6"/>
-      <c r="H151" s="7"/>
-    </row>
-    <row r="152" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="8" t="s">
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="7"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B153" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C152" s="10" t="s">
+      <c r="C153" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D152" s="9" t="s">
+      <c r="D153" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="11"/>
-      <c r="F152" s="11"/>
-      <c r="G152" s="11"/>
-      <c r="H152" s="12"/>
-    </row>
-    <row r="153" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
       <c r="E153" s="11"/>
       <c r="F153" s="11"/>
       <c r="G153" s="11"/>
       <c r="H153" s="12"/>
     </row>
-    <row r="154" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C154" s="25"/>
+      <c r="D154" s="25"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="12"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B155" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C154" s="10" t="s">
+      <c r="C155" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D154" s="10" t="s">
+      <c r="D155" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E154" s="10" t="s">
+      <c r="E155" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F154" s="10" t="s">
+      <c r="F155" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G154" s="10" t="s">
+      <c r="G155" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H154" s="13" t="s">
+      <c r="H155" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="14" t="n">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="14">
         <v>1</v>
       </c>
-      <c r="B155" s="15" t="s">
+      <c r="B156" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C155" s="15" t="s">
+      <c r="C156" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D155" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="15" t="s">
+      <c r="D156" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F155" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G155" s="16"/>
-      <c r="H155" s="20" t="s">
+      <c r="F156" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G156" s="16"/>
+      <c r="H156" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="14" t="n">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="14">
         <v>2</v>
       </c>
-      <c r="B156" s="15" t="s">
+      <c r="B157" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="C156" s="15" t="s">
+      <c r="C157" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D156" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="15" t="s">
+      <c r="D157" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E157" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="F156" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G156" s="16"/>
-      <c r="H156" s="17"/>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B157" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C157" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="D157" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E157" s="15" t="s">
-        <v>190</v>
       </c>
       <c r="F157" s="15" t="s">
         <v>20</v>
@@ -4297,185 +4676,185 @@
       <c r="G157" s="16"/>
       <c r="H157" s="17"/>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="14" t="n">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="14">
+        <v>3</v>
+      </c>
+      <c r="B158" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C158" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D158" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E158" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F158" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G158" s="16"/>
+      <c r="H158" s="17"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="14">
         <v>4</v>
       </c>
-      <c r="B158" s="15" t="s">
+      <c r="B159" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C158" s="15" t="s">
+      <c r="C159" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D158" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E158" s="15" t="s">
+      <c r="D159" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E159" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F158" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G158" s="23"/>
-      <c r="H158" s="24"/>
-    </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="14" t="n">
+      <c r="F159" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G159" s="23"/>
+      <c r="H159" s="24"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="14">
         <v>5</v>
       </c>
-      <c r="B159" s="18" t="s">
+      <c r="B160" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C159" s="18" t="s">
+      <c r="C160" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D159" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E159" s="18" t="s">
+      <c r="D160" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E160" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F159" s="19"/>
-      <c r="G159" s="19"/>
-      <c r="H159" s="22"/>
-    </row>
-    <row r="160" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2" t="s">
+      <c r="F160" s="19"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="22"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B161" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C161" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D160" s="5" t="n">
+      <c r="D161" s="5">
         <v>42800</v>
       </c>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6"/>
-      <c r="G160" s="6"/>
-      <c r="H160" s="7"/>
-    </row>
-    <row r="161" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="8" t="s">
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="7"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B162" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="C162" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D162" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E161" s="11"/>
-      <c r="F161" s="11"/>
-      <c r="G161" s="11"/>
-      <c r="H161" s="12"/>
-    </row>
-    <row r="162" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
       <c r="E162" s="11"/>
       <c r="F162" s="11"/>
       <c r="G162" s="11"/>
       <c r="H162" s="12"/>
     </row>
-    <row r="163" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B163" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C163" s="25"/>
+      <c r="D163" s="25"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="12"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B164" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C163" s="10" t="s">
+      <c r="C164" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D163" s="10" t="s">
+      <c r="D164" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E163" s="10" t="s">
+      <c r="E164" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F163" s="10" t="s">
+      <c r="F164" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G163" s="10" t="s">
+      <c r="G164" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H163" s="13" t="s">
+      <c r="H164" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="14" t="n">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="14">
         <v>1</v>
       </c>
-      <c r="B164" s="15" t="s">
+      <c r="B165" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C164" s="15" t="s">
+      <c r="C165" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D164" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E164" s="15" t="s">
+      <c r="D165" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E165" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F164" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" s="16"/>
-      <c r="H164" s="20" t="s">
+      <c r="F165" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G165" s="16"/>
+      <c r="H165" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="14" t="n">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="14">
         <v>2</v>
       </c>
-      <c r="B165" s="15" t="s">
+      <c r="B166" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C165" s="15" t="s">
+      <c r="C166" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="D165" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E165" s="15" t="s">
+      <c r="D166" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="F165" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G165" s="16"/>
-      <c r="H165" s="20"/>
-    </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B166" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C166" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="D166" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" s="15" t="s">
-        <v>196</v>
       </c>
       <c r="F166" s="15" t="s">
         <v>20</v>
@@ -4483,21 +4862,21 @@
       <c r="G166" s="16"/>
       <c r="H166" s="20"/>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="14" t="n">
-        <v>4</v>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="14">
+        <v>3</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D167" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E167" s="15" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="F167" s="15" t="s">
         <v>20</v>
@@ -4505,21 +4884,21 @@
       <c r="G167" s="16"/>
       <c r="H167" s="20"/>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="14" t="n">
-        <v>5</v>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="14">
+        <v>4</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>198</v>
+        <v>113</v>
       </c>
       <c r="C168" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D168" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E168" s="15" t="s">
-        <v>24</v>
+        <v>175</v>
       </c>
       <c r="F168" s="15" t="s">
         <v>20</v>
@@ -4527,21 +4906,21 @@
       <c r="G168" s="16"/>
       <c r="H168" s="20"/>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="14" t="n">
-        <v>6</v>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="14">
+        <v>5</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D169" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E169" s="15" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F169" s="15" t="s">
         <v>20</v>
@@ -4549,21 +4928,21 @@
       <c r="G169" s="16"/>
       <c r="H169" s="20"/>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="14" t="n">
-        <v>7</v>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="14">
+        <v>6</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D170" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E170" s="15" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="F170" s="15" t="s">
         <v>20</v>
@@ -4571,21 +4950,21 @@
       <c r="G170" s="16"/>
       <c r="H170" s="20"/>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="14" t="n">
-        <v>8</v>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="14">
+        <v>7</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="D171" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E171" s="15" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="F171" s="15" t="s">
         <v>20</v>
@@ -4593,209 +4972,203 @@
       <c r="G171" s="16"/>
       <c r="H171" s="20"/>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="14" t="n">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="14">
+        <v>8</v>
+      </c>
+      <c r="B172" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C172" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D172" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E172" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="F172" s="15"/>
+      <c r="G172" s="16"/>
+      <c r="H172" s="20"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="14">
         <v>9</v>
       </c>
-      <c r="B172" s="18" t="s">
+      <c r="B173" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C173" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D173" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E173" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F173" s="15"/>
+      <c r="G173" s="16"/>
+      <c r="H173" s="20"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="14">
+        <v>10</v>
+      </c>
+      <c r="B174" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C174" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D174" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E174" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F174" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G174" s="16"/>
+      <c r="H174" s="20"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="14">
+        <v>11</v>
+      </c>
+      <c r="B175" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C172" s="18" t="s">
+      <c r="C175" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D172" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E172" s="18" t="s">
+      <c r="D175" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E175" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F172" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G172" s="19"/>
-      <c r="H172" s="22"/>
-    </row>
-    <row r="173" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2" t="s">
+      <c r="F175" s="18"/>
+      <c r="G175" s="19"/>
+      <c r="H175" s="22"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B176" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="C176" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D173" s="5" t="n">
+      <c r="D176" s="5">
         <v>42800</v>
       </c>
-      <c r="E173" s="6"/>
-      <c r="F173" s="6"/>
-      <c r="G173" s="6"/>
-      <c r="H173" s="7"/>
-    </row>
-    <row r="174" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="8" t="s">
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="7"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B177" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C174" s="10" t="s">
+      <c r="C177" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D174" s="9" t="s">
+      <c r="D177" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E174" s="11"/>
-      <c r="F174" s="11"/>
-      <c r="G174" s="11"/>
-      <c r="H174" s="12"/>
-    </row>
-    <row r="175" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="8" t="s">
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
+      <c r="H177" s="12"/>
+    </row>
+    <row r="178" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B178" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="C175" s="9"/>
-      <c r="D175" s="9"/>
-      <c r="E175" s="11"/>
-      <c r="F175" s="11"/>
-      <c r="G175" s="11"/>
-      <c r="H175" s="12"/>
-    </row>
-    <row r="176" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="8" t="s">
+      <c r="C178" s="25"/>
+      <c r="D178" s="25"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="11"/>
+      <c r="H178" s="12"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B176" s="10" t="s">
+      <c r="B179" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C176" s="10" t="s">
+      <c r="C179" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D176" s="10" t="s">
+      <c r="D179" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E176" s="10" t="s">
+      <c r="E179" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F176" s="10" t="s">
+      <c r="F179" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G176" s="10" t="s">
+      <c r="G179" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H176" s="13" t="s">
+      <c r="H179" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="14" t="n">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="14">
         <v>1</v>
       </c>
-      <c r="B177" s="15" t="s">
+      <c r="B180" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C177" s="15" t="s">
+      <c r="C180" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D177" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177" s="15" t="s">
+      <c r="D180" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E180" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F177" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G177" s="16"/>
-      <c r="H177" s="20" t="s">
+      <c r="F180" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G180" s="16"/>
+      <c r="H180" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="14" t="n">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="14">
         <v>2</v>
       </c>
-      <c r="B178" s="15" t="s">
+      <c r="B181" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C178" s="15" t="s">
+      <c r="C181" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D178" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178" s="15" t="s">
+      <c r="D181" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E181" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="F178" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G178" s="16"/>
-      <c r="H178" s="20"/>
-    </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B179" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C179" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="D179" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E179" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="F179" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G179" s="16"/>
-      <c r="H179" s="20"/>
-    </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B180" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C180" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D180" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E180" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F180" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G180" s="16"/>
-      <c r="H180" s="20"/>
-    </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B181" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C181" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D181" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E181" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="F181" s="15" t="s">
         <v>20</v>
@@ -4803,269 +5176,271 @@
       <c r="G181" s="16"/>
       <c r="H181" s="20"/>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="14" t="n">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="14">
+        <v>3</v>
+      </c>
+      <c r="B182" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C182" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D182" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E182" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="F182" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G182" s="16"/>
+      <c r="H182" s="20"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="14">
+        <v>4</v>
+      </c>
+      <c r="B183" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C183" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D183" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E183" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F183" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G183" s="16"/>
+      <c r="H183" s="20"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="14">
+        <v>5</v>
+      </c>
+      <c r="B184" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C184" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D184" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E184" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F184" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G184" s="16"/>
+      <c r="H184" s="20"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="14">
         <v>6</v>
       </c>
-      <c r="B182" s="18" t="s">
+      <c r="B185" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C182" s="18" t="s">
+      <c r="C185" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D182" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E182" s="18" t="s">
+      <c r="D185" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E185" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F182" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G182" s="19"/>
-      <c r="H182" s="22"/>
-    </row>
-    <row r="183" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="2" t="s">
+      <c r="F185" s="18"/>
+      <c r="G185" s="19"/>
+      <c r="H185" s="22"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B186" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C186" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D183" s="5" t="n">
+      <c r="D186" s="5">
         <v>42800</v>
       </c>
-      <c r="E183" s="6"/>
-      <c r="F183" s="6"/>
-      <c r="G183" s="6"/>
-      <c r="H183" s="7"/>
-    </row>
-    <row r="184" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="8" t="s">
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="7"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B187" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C184" s="10" t="s">
+      <c r="C187" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D184" s="9" t="s">
+      <c r="D187" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E184" s="11"/>
-      <c r="F184" s="11"/>
-      <c r="G184" s="11"/>
-      <c r="H184" s="12"/>
-    </row>
-    <row r="185" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="8" t="s">
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="11"/>
+      <c r="H187" s="12"/>
+    </row>
+    <row r="188" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B185" s="9" t="s">
+      <c r="B188" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="C185" s="9"/>
-      <c r="D185" s="9"/>
-      <c r="E185" s="11"/>
-      <c r="F185" s="11"/>
-      <c r="G185" s="11"/>
-      <c r="H185" s="12"/>
-    </row>
-    <row r="186" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="8" t="s">
+      <c r="C188" s="25"/>
+      <c r="D188" s="25"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="11"/>
+      <c r="H188" s="12"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B186" s="10" t="s">
+      <c r="B189" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C186" s="10" t="s">
+      <c r="C189" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D186" s="10" t="s">
+      <c r="D189" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E186" s="10" t="s">
+      <c r="E189" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F186" s="10" t="s">
+      <c r="F189" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G186" s="10" t="s">
+      <c r="G189" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H186" s="13" t="s">
+      <c r="H189" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="14" t="n">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="14">
         <v>1</v>
       </c>
-      <c r="B187" s="15" t="s">
+      <c r="B190" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C187" s="15" t="s">
+      <c r="C190" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D187" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E187" s="15" t="s">
+      <c r="D190" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E190" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F187" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G187" s="16"/>
-      <c r="H187" s="20" t="s">
+      <c r="F190" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G190" s="16"/>
+      <c r="H190" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="14" t="n">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="14">
         <v>2</v>
       </c>
-      <c r="B188" s="15" t="s">
+      <c r="B191" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C188" s="15" t="s">
+      <c r="C191" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="D188" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="15" t="s">
+      <c r="D191" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E191" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F188" s="15"/>
-      <c r="G188" s="16"/>
-      <c r="H188" s="20"/>
-    </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B189" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C189" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D189" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F189" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G189" s="16"/>
-      <c r="H189" s="20"/>
-    </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B190" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C190" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D190" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E190" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F190" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G190" s="16"/>
-      <c r="H190" s="20"/>
-    </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B191" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="C191" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="D191" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E191" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F191" s="15" t="s">
-        <v>20</v>
-      </c>
+      <c r="F191" s="15"/>
       <c r="G191" s="16"/>
       <c r="H191" s="20"/>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="14" t="n">
-        <v>6</v>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="14">
+        <v>3</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>215</v>
+        <v>131</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="D192" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E192" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F192" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="F192" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="G192" s="16"/>
       <c r="H192" s="20"/>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="14" t="n">
-        <v>7</v>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="14">
+        <v>4</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="D193" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E193" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="F193" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="F193" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="G193" s="16"/>
       <c r="H193" s="20"/>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="14" t="n">
-        <v>8</v>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="14">
+        <v>5</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="C194" s="15" t="s">
-        <v>39</v>
+        <v>214</v>
       </c>
       <c r="D194" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E194" s="15" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F194" s="15" t="s">
         <v>20</v>
@@ -5073,30 +5448,291 @@
       <c r="G194" s="16"/>
       <c r="H194" s="20"/>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="14" t="n">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="14">
+        <v>6</v>
+      </c>
+      <c r="B195" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C195" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D195" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E195" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F195" s="15"/>
+      <c r="G195" s="16"/>
+      <c r="H195" s="20"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="14">
+        <v>7</v>
+      </c>
+      <c r="B196" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C196" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D196" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E196" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F196" s="15"/>
+      <c r="G196" s="16"/>
+      <c r="H196" s="20"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="14">
+        <v>8</v>
+      </c>
+      <c r="B197" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C197" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D197" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E197" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F197" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G197" s="16"/>
+      <c r="H197" s="20"/>
+    </row>
+    <row r="198" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="14">
         <v>9</v>
       </c>
-      <c r="B195" s="18" t="s">
+      <c r="B198" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C195" s="18" t="s">
+      <c r="C198" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D195" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E195" s="18" t="s">
+      <c r="D198" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E198" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F195" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G195" s="19"/>
-      <c r="H195" s="22"/>
+      <c r="F198" s="18"/>
+      <c r="G198" s="19"/>
+      <c r="H198" s="22"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199" s="5">
+        <v>42800</v>
+      </c>
+      <c r="E199" s="6"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="7"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E200" s="11"/>
+      <c r="F200" s="11"/>
+      <c r="G200" s="11"/>
+      <c r="H200" s="12"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B201" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C201" s="25"/>
+      <c r="D201" s="25"/>
+      <c r="E201" s="11"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="11"/>
+      <c r="H201" s="12"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D202" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E202" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F202" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G202" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H202" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="14">
+        <v>1</v>
+      </c>
+      <c r="B203" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C203" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D203" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E203" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F203" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G203" s="16"/>
+      <c r="H203" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="14">
+        <v>2</v>
+      </c>
+      <c r="B204" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C204" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D204" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E204" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="F204" s="15"/>
+      <c r="G204" s="16"/>
+      <c r="H204" s="20"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="14">
+        <v>3</v>
+      </c>
+      <c r="B205" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C205" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D205" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E205" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F205" s="15"/>
+      <c r="G205" s="16"/>
+      <c r="H205" s="20"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="14">
+        <v>4</v>
+      </c>
+      <c r="B206" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C206" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D206" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E206" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="F206" s="15"/>
+      <c r="G206" s="16"/>
+      <c r="H206" s="20"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="14">
+        <v>8</v>
+      </c>
+      <c r="B207" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C207" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D207" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E207" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F207" s="15"/>
+      <c r="G207" s="16"/>
+      <c r="H207" s="20"/>
+    </row>
+    <row r="208" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="14">
+        <v>9</v>
+      </c>
+      <c r="B208" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C208" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D208" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E208" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F208" s="18"/>
+      <c r="G208" s="19"/>
+      <c r="H208" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="B201:D201"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B24:D24"/>
@@ -5107,20 +5743,16 @@
     <mergeCell ref="B85:D85"/>
     <mergeCell ref="B95:D95"/>
     <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B178:D178"/>
+    <mergeCell ref="B188:D188"/>
     <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="B175:D175"/>
-    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B163:D163"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>